--- a/data/solid_waste_reports.xlsx
+++ b/data/solid_waste_reports.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\AA_Proposed File Structure\Other Projects and Ideas\HackAThon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\AA_Proposed File Structure\Administrative\Reports\Annual Reports\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11532" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="2018 JAN" sheetId="16" r:id="rId1"/>
@@ -23,8 +23,10 @@
     <sheet name="2018 SEPT" sheetId="26" r:id="rId9"/>
     <sheet name="2018 OCT" sheetId="27" r:id="rId10"/>
     <sheet name="2018 NOV" sheetId="28" r:id="rId11"/>
-    <sheet name="2018 FIRST HALF" sheetId="32" r:id="rId12"/>
-    <sheet name="2018 SECOND HALF" sheetId="33" r:id="rId13"/>
+    <sheet name="2018 DEC" sheetId="29" r:id="rId12"/>
+    <sheet name="2018 ANNUAL TOTAL" sheetId="34" r:id="rId13"/>
+    <sheet name="2018 FIRST HALF" sheetId="32" r:id="rId14"/>
+    <sheet name="2018 SECOND HALF" sheetId="33" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="81">
   <si>
     <t>Downtown</t>
   </si>
@@ -261,6 +263,9 @@
     <t>SOLID WASTE ANNUAL REPORT 2018: JULY</t>
   </si>
   <si>
+    <t>SOLID WASTE ANNUAL REPORT 2018: DECEMBER</t>
+  </si>
+  <si>
     <t>SOLID WASTE ANNUAL REPORT 2018: NOVEMBER</t>
   </si>
   <si>
@@ -277,6 +282,9 @@
   </si>
   <si>
     <t>SOLID WASTE ANNUAL REPORT 2018: JULY--DEC</t>
+  </si>
+  <si>
+    <t>SOLID WASTE ANNUAL REPORT 2018</t>
   </si>
   <si>
     <t>SWMF Recycled</t>
@@ -656,7 +664,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1034,6 +1042,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1178,9 +1192,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1201,9 +1213,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1224,9 +1234,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1247,9 +1255,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1270,9 +1276,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1758,7 +1762,7 @@
                   <c:v>2055.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2246.3000000000002</c:v>
+                  <c:v>3044.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4810.8999999999996</c:v>
@@ -1833,19 +1837,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.3571597276202036E-2</c:v>
+                  <c:v>6.809394446917412E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8456720126038812E-3</c:v>
+                  <c:v>7.2615353496261808E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20717997435313026</c:v>
+                  <c:v>0.19175472860489795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22643881590533343</c:v>
+                  <c:v>0.28403304721658723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4849639404527305</c:v>
+                  <c:v>0.44885674435971462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2185,7 @@
                   <c:v>3048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1832.8999999999999</c:v>
+                  <c:v>2363.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4717.7000000000007</c:v>
@@ -2256,19 +2260,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.4163836603131364E-2</c:v>
+                  <c:v>5.1482923942833284E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5258134156681597E-3</c:v>
+                  <c:v>4.3018021335074312E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29890962710631741</c:v>
+                  <c:v>0.28411468912092414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17974785286193215</c:v>
+                  <c:v>0.22034734698587682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4626528700129508</c:v>
+                  <c:v>0.43975323781685827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,7 +2350,430 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2018 FIRST HALF'!$B$29:$B$30</c:f>
+              <c:f>'2018 DEC'!$B$29:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL WASTESTREAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Totals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1996022523616371E-2"/>
+                  <c:y val="-4.4939025155597473E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4057828614796642E-2"/>
+                  <c:y val="1.9523458372118326E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.408360099565878E-2"/>
+                  <c:y val="-0.13891942609680549"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10245763707247443"/>
+                  <c:y val="-0.15691392660965087"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16685068728825003"/>
+                  <c:y val="0.13559833527288506"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018 DEC'!$A$31:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Commodity Recycled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWMF Recycled</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mulch Recycled</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C&amp;D (class 3) Diverted</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garbage (class 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 DEC'!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>625.32050000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2162.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 DEC'!$C$29:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL WASTESTREAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018 DEC'!$A$31:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Commodity Recycled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWMF Recycled</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mulch Recycled</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C&amp;D (class 3) Diverted</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garbage (class 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 DEC'!$C$31:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.143892556441171E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8339933486413068E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28296546431071062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21245990278662524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43830171398961115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.535421327367636E-2"/>
+          <c:y val="3.462915711086284E-2"/>
+          <c:w val="0.18696683048847079"/>
+          <c:h val="0.60203877071270906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 ANNUAL TOTAL'!$B$29:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2456,8 +2883,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.7330697098985971E-2"/>
-                  <c:y val="-7.4701132710169025E-4"/>
+                  <c:x val="0.20921028593892713"/>
+                  <c:y val="2.6580047302349512E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2479,8 +2906,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.7076670482269009E-2"/>
-                  <c:y val="1.3805902572939397E-2"/>
+                  <c:x val="-0.15221836550019593"/>
+                  <c:y val="9.7281780368300069E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2502,8 +2929,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.9517846612785733E-2"/>
-                  <c:y val="-9.2229002185806069E-2"/>
+                  <c:x val="-0.12707148741913254"/>
+                  <c:y val="-0.19318059873178897"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2525,8 +2952,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4603003919664257E-2"/>
-                  <c:y val="0.36104656896585713"/>
+                  <c:x val="0.16960749224528751"/>
+                  <c:y val="3.995357889774051E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2567,14 +2994,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2018 FIRST HALF'!$A$31:$A$35</c:f>
+              <c:f>'2018 ANNUAL TOTAL'!$A$31:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Commodity Recycled</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SWMP Recycled</c:v>
+                  <c:v>SWMF Recycled</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mulch Recycled</c:v>
@@ -2590,24 +3017,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018 FIRST HALF'!$B$31:$B$35</c:f>
+              <c:f>'2018 ANNUAL TOTAL'!$B$31:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3368.4070000000002</c:v>
+                  <c:v>7263.0215000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>397.40999999999991</c:v>
+                  <c:v>777.66000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11595.85</c:v>
+                  <c:v>26880.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15116.01</c:v>
+                  <c:v>31552.684999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28547.35</c:v>
+                  <c:v>56831.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,7 +3045,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2018 FIRST HALF'!$C$29:$C$30</c:f>
+              <c:f>'2018 ANNUAL TOTAL'!$C$29:$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2651,14 +3078,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2018 FIRST HALF'!$A$31:$A$35</c:f>
+              <c:f>'2018 ANNUAL TOTAL'!$A$31:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Commodity Recycled</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SWMP Recycled</c:v>
+                  <c:v>SWMF Recycled</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mulch Recycled</c:v>
@@ -2674,24 +3101,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018 FIRST HALF'!$C$31:$C$35</c:f>
+              <c:f>'2018 ANNUAL TOTAL'!$C$31:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.7067436834887006E-2</c:v>
+                  <c:v>5.8902753621779748E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7329067041341619E-3</c:v>
+                  <c:v>6.3067850455231673E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19645649632654974</c:v>
+                  <c:v>0.2179986648018806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25609492732633565</c:v>
+                  <c:v>0.25589075161909203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48364823280809338</c:v>
+                  <c:v>0.46090104491172446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,7 +3172,420 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 FIRST HALF'!$B$29:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL WASTESTREAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Totals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4932915264786535E-2"/>
+                  <c:y val="6.0607256015449476E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7330697098985971E-2"/>
+                  <c:y val="-7.4701132710169025E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7076670482269009E-2"/>
+                  <c:y val="1.3805902572939397E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9517846612785733E-2"/>
+                  <c:y val="-9.2229002185806069E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4603003919664257E-2"/>
+                  <c:y val="0.36104656896585713"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018 FIRST HALF'!$A$31:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Commodity Recycled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWMP Recycled</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mulch Recycled</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C&amp;D (class 3) Diverted</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garbage (class 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 FIRST HALF'!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3368.4070000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>397.40999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11595.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15116.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28547.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 FIRST HALF'!$C$29:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL WASTESTREAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018 FIRST HALF'!$A$31:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Commodity Recycled</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SWMP Recycled</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mulch Recycled</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C&amp;D (class 3) Diverted</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garbage (class 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 FIRST HALF'!$C$31:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7067436834887006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7329067041341619E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19645649632654974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25609492732633565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48364823280809338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.535421327367636E-2"/>
+          <c:y val="3.462915711086284E-2"/>
+          <c:w val="0.18696683048847079"/>
+          <c:h val="0.60203877071270906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3011,16 +3851,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>380.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15284.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16436.674999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>28284.189999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5348,7 +6188,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5369,7 +6211,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5390,7 +6234,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5411,7 +6257,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5432,7 +6280,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5761,7 +6611,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5782,7 +6634,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5803,7 +6657,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5824,7 +6680,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5845,7 +6703,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6174,7 +7034,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6195,7 +7057,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6216,7 +7080,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6237,7 +7103,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6258,7 +7126,9 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6609,6 +7479,80 @@
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>195260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>195260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7206,23 +8150,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
@@ -7234,8 +8178,8 @@
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>66</v>
       </c>
@@ -7274,7 +8218,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -7623,7 +8567,7 @@
       </c>
       <c r="L14" s="89"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -7672,7 +8616,7 @@
         <v>521.37599999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7891,7 +8835,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -7941,7 +8885,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -7949,7 +8893,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>62</v>
       </c>
@@ -7995,7 +8939,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -8076,7 +9020,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -8477,37 +9421,37 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
       <c r="A1" s="121" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -8546,7 +9490,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -8895,7 +9839,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -8944,7 +9888,7 @@
         <v>729.83899999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8958,7 +9902,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -9121,10 +10065,12 @@
         <v>9</v>
       </c>
       <c r="B23" s="35"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="32">
+      <c r="C23" s="34">
+        <v>600</v>
+      </c>
+      <c r="D23" s="102">
         <f>C23</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>40</v>
@@ -9142,10 +10088,12 @@
         <v>10</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38">
+      <c r="C24" s="37">
+        <v>198</v>
+      </c>
+      <c r="D24" s="103">
         <f>C24</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="24" t="s">
@@ -9159,7 +10107,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -9169,11 +10117,11 @@
       </c>
       <c r="C25" s="40">
         <f>SUM(C20:C24)</f>
-        <v>2246.3000000000002</v>
+        <v>3044.3</v>
       </c>
       <c r="D25" s="41">
         <f>B25+C25</f>
-        <v>7057.2</v>
+        <v>7855.2</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>36</v>
@@ -9209,7 +10157,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -9217,7 +10165,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -9253,7 +10201,7 @@
       </c>
       <c r="C31" s="46">
         <f>B31/B36</f>
-        <v>7.3571597276202036E-2</v>
+        <v>6.809394446917412E-2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -9263,7 +10211,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -9271,7 +10219,7 @@
       </c>
       <c r="C32" s="47">
         <f>B32/B36</f>
-        <v>7.8456720126038812E-3</v>
+        <v>7.2615353496261808E-3</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -9291,7 +10239,7 @@
       </c>
       <c r="C33" s="46">
         <f>B33/B36</f>
-        <v>0.20717997435313026</v>
+        <v>0.19175472860489795</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -9308,11 +10256,11 @@
       </c>
       <c r="B34" s="96">
         <f>C25+H25</f>
-        <v>2246.3000000000002</v>
+        <v>3044.3</v>
       </c>
       <c r="C34" s="46">
         <f>B34/B36</f>
-        <v>0.22643881590533343</v>
+        <v>0.28403304721658723</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -9333,7 +10281,7 @@
       </c>
       <c r="C35" s="48">
         <f>B35/B36</f>
-        <v>0.4849639404527305</v>
+        <v>0.44885674435971462</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -9344,17 +10292,17 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="98">
         <f>SUM(B31:B35)</f>
-        <v>9920.1189999999988</v>
+        <v>10718.118999999999</v>
       </c>
       <c r="C36" s="44">
         <f>SUM(C31:C35)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9742,37 +10690,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
       <c r="A1" s="121" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -9811,7 +10759,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -10158,7 +11106,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -10207,7 +11155,7 @@
         <v>552.31200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -10221,7 +11169,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -10384,10 +11332,12 @@
         <v>9</v>
       </c>
       <c r="B23" s="35"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="34">
+        <v>280</v>
+      </c>
       <c r="D23" s="32">
         <f>C23</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>40</v>
@@ -10405,10 +11355,12 @@
         <v>10</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="37">
+        <v>251</v>
+      </c>
       <c r="D24" s="38">
         <f>C24</f>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="24" t="s">
@@ -10422,7 +11374,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -10432,11 +11384,11 @@
       </c>
       <c r="C25" s="40">
         <f>SUM(C20:C24)</f>
-        <v>1830.6</v>
+        <v>2361.6</v>
       </c>
       <c r="D25" s="41">
         <f>B25+C25</f>
-        <v>6548.3000000000011</v>
+        <v>7079.3000000000011</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>36</v>
@@ -10472,7 +11424,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -10480,7 +11432,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -10516,7 +11468,7 @@
       </c>
       <c r="C31" s="46">
         <f>B31/B36</f>
-        <v>5.4163836603131364E-2</v>
+        <v>5.1482923942833284E-2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -10526,7 +11478,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -10534,7 +11486,7 @@
       </c>
       <c r="C32" s="47">
         <f>B32/B36</f>
-        <v>4.5258134156681597E-3</v>
+        <v>4.3018021335074312E-3</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -10554,7 +11506,7 @@
       </c>
       <c r="C33" s="46">
         <f>B33/B36</f>
-        <v>0.29890962710631741</v>
+        <v>0.28411468912092414</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -10571,11 +11523,11 @@
       </c>
       <c r="B34" s="96">
         <f>C25+H25</f>
-        <v>1832.8999999999999</v>
+        <v>2363.9</v>
       </c>
       <c r="C34" s="46">
         <f>B34/B36</f>
-        <v>0.17974785286193215</v>
+        <v>0.22034734698587682</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -10596,7 +11548,7 @@
       </c>
       <c r="C35" s="48">
         <f>B35/B36</f>
-        <v>0.4626528700129508</v>
+        <v>0.43975323781685827</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -10607,13 +11559,13 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="98">
         <f>SUM(B31:B35)</f>
-        <v>10197.062000000002</v>
+        <v>10728.062000000002</v>
       </c>
       <c r="C36" s="44">
         <f>SUM(C31:C35)</f>
@@ -11004,37 +11956,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
       <c r="A1" s="121" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -11073,7 +12025,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -11114,39 +12066,33 @@
         <v>2</v>
       </c>
       <c r="B6" s="53">
-        <f>SUM('2018 JAN'!B6,'2018 FEB'!B6,'2018 MAR'!B6,'2018 APRIL'!B6,'2018 MAY'!B6,'2018 JUNE'!B6)</f>
-        <v>3980</v>
+        <v>360</v>
       </c>
       <c r="C6" s="53">
-        <f>SUM('2018 JAN'!C6,'2018 FEB'!C6,'2018 MAR'!C6,'2018 APRIL'!C6,'2018 MAY'!C6,'2018 JUNE'!C6)</f>
-        <v>3140</v>
+        <v>1240</v>
       </c>
       <c r="D6" s="53">
-        <f>SUM('2018 JAN'!D6,'2018 FEB'!D6,'2018 MAR'!D6,'2018 APRIL'!D6,'2018 MAY'!D6,'2018 JUNE'!D6)</f>
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="E6" s="53">
-        <f>SUM('2018 JAN'!E6,'2018 FEB'!E6,'2018 MAR'!E6,'2018 APRIL'!E6,'2018 MAY'!E6,'2018 JUNE'!E6)</f>
-        <v>26100</v>
+        <v>2860</v>
       </c>
       <c r="F6" s="53">
-        <f>SUM('2018 JAN'!F6,'2018 FEB'!F6,'2018 MAR'!F6,'2018 APRIL'!F6,'2018 MAY'!F6,'2018 JUNE'!F6)</f>
-        <v>1846</v>
+        <v>340</v>
       </c>
       <c r="G6" s="51">
         <f t="shared" ref="G6:G10" si="0">SUM(B6:F6)</f>
-        <v>36846</v>
+        <v>4800</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="53">
-        <f>SUM('2018 JAN'!K6,'2018 FEB'!K6,'2018 MAR'!K6,'2018 APRIL'!K6,'2018 MAY'!K6,'2018 JUNE'!K6)</f>
+      <c r="K6" s="55">
         <v>0</v>
       </c>
       <c r="L6" s="65">
         <f>SUM(G6:K6)/2000</f>
-        <v>18.422999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11154,39 +12100,33 @@
         <v>12</v>
       </c>
       <c r="B7" s="53">
-        <f>SUM('2018 JAN'!B7,'2018 FEB'!B7,'2018 MAR'!B7,'2018 APRIL'!B7,'2018 MAY'!B7,'2018 JUNE'!B7)</f>
-        <v>37200</v>
+        <v>3860</v>
       </c>
       <c r="C7" s="53">
-        <f>SUM('2018 JAN'!C7,'2018 FEB'!C7,'2018 MAR'!C7,'2018 APRIL'!C7,'2018 MAY'!C7,'2018 JUNE'!C7)</f>
-        <v>42037</v>
+        <v>6126</v>
       </c>
       <c r="D7" s="53">
-        <f>SUM('2018 JAN'!D7,'2018 FEB'!D7,'2018 MAR'!D7,'2018 APRIL'!D7,'2018 MAY'!D7,'2018 JUNE'!D7)</f>
-        <v>34940</v>
+        <v>4500</v>
       </c>
       <c r="E7" s="53">
-        <f>SUM('2018 JAN'!E7,'2018 FEB'!E7,'2018 MAR'!E7,'2018 APRIL'!E7,'2018 MAY'!E7,'2018 JUNE'!E7)</f>
-        <v>154000</v>
+        <v>29640</v>
       </c>
       <c r="F7" s="53">
-        <f>SUM('2018 JAN'!F7,'2018 FEB'!F7,'2018 MAR'!F7,'2018 APRIL'!F7,'2018 MAY'!F7,'2018 JUNE'!F7)</f>
-        <v>20520</v>
+        <v>2755</v>
       </c>
       <c r="G7" s="51">
         <f t="shared" si="0"/>
-        <v>288697</v>
+        <v>46881</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="53">
-        <f>SUM('2018 JAN'!K7,'2018 FEB'!K7,'2018 MAR'!K7,'2018 APRIL'!K7,'2018 MAY'!K7,'2018 JUNE'!K7)</f>
+      <c r="K7" s="55">
         <v>0</v>
       </c>
       <c r="L7" s="65">
         <f>SUM(G7:K7)/2000</f>
-        <v>144.3485</v>
+        <v>23.4405</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -11194,39 +12134,33 @@
         <v>13</v>
       </c>
       <c r="B8" s="53">
-        <f>SUM('2018 JAN'!B8,'2018 FEB'!B8,'2018 MAR'!B8,'2018 APRIL'!B8,'2018 MAY'!B8,'2018 JUNE'!B8)</f>
-        <v>65520</v>
+        <v>7880</v>
       </c>
       <c r="C8" s="53">
-        <f>SUM('2018 JAN'!C8,'2018 FEB'!C8,'2018 MAR'!C8,'2018 APRIL'!C8,'2018 MAY'!C8,'2018 JUNE'!C8)</f>
-        <v>85450</v>
+        <v>14940</v>
       </c>
       <c r="D8" s="53">
-        <f>SUM('2018 JAN'!D8,'2018 FEB'!D8,'2018 MAR'!D8,'2018 APRIL'!D8,'2018 MAY'!D8,'2018 JUNE'!D8)</f>
-        <v>72740</v>
+        <v>6740</v>
       </c>
       <c r="E8" s="53">
-        <f>SUM('2018 JAN'!E8,'2018 FEB'!E8,'2018 MAR'!E8,'2018 APRIL'!E8,'2018 MAY'!E8,'2018 JUNE'!E8)</f>
-        <v>234820</v>
+        <v>51500</v>
       </c>
       <c r="F8" s="53">
-        <f>SUM('2018 JAN'!F8,'2018 FEB'!F8,'2018 MAR'!F8,'2018 APRIL'!F8,'2018 MAY'!F8,'2018 JUNE'!F8)</f>
-        <v>101820</v>
+        <v>13740</v>
       </c>
       <c r="G8" s="51">
         <f t="shared" si="0"/>
-        <v>560350</v>
+        <v>94800</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="53">
-        <f>SUM('2018 JAN'!K8,'2018 FEB'!K8,'2018 MAR'!K8,'2018 APRIL'!K8,'2018 MAY'!K8,'2018 JUNE'!K8)</f>
+      <c r="K8" s="55">
         <v>0</v>
       </c>
       <c r="L8" s="65">
         <f>SUM(G8:K8)/2000</f>
-        <v>280.17500000000001</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -11234,42 +12168,33 @@
         <v>4</v>
       </c>
       <c r="B9" s="53">
-        <f>SUM('2018 JAN'!B9,'2018 FEB'!B9,'2018 MAR'!B9,'2018 APRIL'!B9,'2018 MAY'!B9,'2018 JUNE'!B9)</f>
-        <v>81940</v>
+        <v>10800</v>
       </c>
       <c r="C9" s="53">
-        <f>SUM('2018 JAN'!C9,'2018 FEB'!C9,'2018 MAR'!C9,'2018 APRIL'!C9,'2018 MAY'!C9,'2018 JUNE'!C9)</f>
-        <v>87180</v>
+        <v>30920</v>
       </c>
       <c r="D9" s="53">
-        <f>SUM('2018 JAN'!D9,'2018 FEB'!D9,'2018 MAR'!D9,'2018 APRIL'!D9,'2018 MAY'!D9,'2018 JUNE'!D9)</f>
-        <v>64200</v>
+        <v>23080</v>
       </c>
       <c r="E9" s="53">
-        <f>SUM('2018 JAN'!E9,'2018 FEB'!E9,'2018 MAR'!E9,'2018 APRIL'!E9,'2018 MAY'!E9,'2018 JUNE'!E9)</f>
-        <v>295480</v>
+        <v>81460</v>
       </c>
       <c r="F9" s="53">
-        <f>SUM('2018 JAN'!F9,'2018 FEB'!F9,'2018 MAR'!F9,'2018 APRIL'!F9,'2018 MAY'!F9,'2018 JUNE'!F9)</f>
-        <v>49140</v>
+        <v>6140</v>
       </c>
       <c r="G9" s="51">
         <f t="shared" si="0"/>
-        <v>577940</v>
+        <v>152400</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="54"/>
-      <c r="J9" s="53">
-        <f>SUM('2018 JAN'!J9,'2018 FEB'!J9,'2018 MAR'!J9,'2018 APRIL'!J9,'2018 MAY'!J9,'2018 JUNE'!J9)</f>
-        <v>39809</v>
-      </c>
-      <c r="K9" s="53">
-        <f>SUM('2018 JAN'!K9,'2018 FEB'!K9,'2018 MAR'!K9,'2018 APRIL'!K9,'2018 MAY'!K9,'2018 JUNE'!K9)</f>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55">
         <v>0</v>
       </c>
       <c r="L9" s="65">
         <f t="shared" ref="L9:L13" si="1">SUM(G9:K9)/2000</f>
-        <v>308.87450000000001</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -11277,42 +12202,35 @@
         <v>5</v>
       </c>
       <c r="B10" s="53">
-        <f>SUM('2018 JAN'!B10,'2018 FEB'!B10,'2018 MAR'!B10,'2018 APRIL'!B10,'2018 MAY'!B10,'2018 JUNE'!B10)</f>
-        <v>64780</v>
+        <v>6140</v>
       </c>
       <c r="C10" s="53">
-        <f>SUM('2018 JAN'!C10,'2018 FEB'!C10,'2018 MAR'!C10,'2018 APRIL'!C10,'2018 MAY'!C10,'2018 JUNE'!C10)</f>
-        <v>50455</v>
+        <v>10100</v>
       </c>
       <c r="D10" s="53">
-        <f>SUM('2018 JAN'!D10,'2018 FEB'!D10,'2018 MAR'!D10,'2018 APRIL'!D10,'2018 MAY'!D10,'2018 JUNE'!D10)</f>
-        <v>55320</v>
+        <v>8460</v>
       </c>
       <c r="E10" s="53">
-        <f>SUM('2018 JAN'!E10,'2018 FEB'!E10,'2018 MAR'!E10,'2018 APRIL'!E10,'2018 MAY'!E10,'2018 JUNE'!E10)</f>
-        <v>198280</v>
+        <v>45880</v>
       </c>
       <c r="F10" s="53">
-        <f>SUM('2018 JAN'!F10,'2018 FEB'!F10,'2018 MAR'!F10,'2018 APRIL'!F10,'2018 MAY'!F10,'2018 JUNE'!F10)</f>
-        <v>43660</v>
+        <v>11680</v>
       </c>
       <c r="G10" s="51">
         <f t="shared" si="0"/>
-        <v>412495</v>
+        <v>82260</v>
       </c>
       <c r="H10" s="49"/>
-      <c r="I10" s="53">
-        <f>SUM('2018 JAN'!I10,'2018 FEB'!I10,'2018 MAR'!I10,'2018 APRIL'!I10,'2018 MAY'!I10,'2018 JUNE'!I10)</f>
-        <v>45520</v>
+      <c r="I10">
+        <v>22240</v>
       </c>
       <c r="J10" s="54"/>
-      <c r="K10" s="53">
-        <f>SUM('2018 JAN'!K10,'2018 FEB'!K10,'2018 MAR'!K10,'2018 APRIL'!K10,'2018 MAY'!K10,'2018 JUNE'!K10)</f>
+      <c r="K10" s="55">
         <v>0</v>
       </c>
       <c r="L10" s="65">
         <f t="shared" si="1"/>
-        <v>229.00749999999999</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11320,39 +12238,33 @@
         <v>11</v>
       </c>
       <c r="B11" s="53">
-        <f>SUM('2018 JAN'!B11,'2018 FEB'!B11,'2018 MAR'!B11,'2018 APRIL'!B11,'2018 MAY'!B11,'2018 JUNE'!B11)</f>
-        <v>3080</v>
+        <v>940</v>
       </c>
       <c r="C11" s="53">
-        <f>SUM('2018 JAN'!C11,'2018 FEB'!C11,'2018 MAR'!C11,'2018 APRIL'!C11,'2018 MAY'!C11,'2018 JUNE'!C11)</f>
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="D11" s="53">
-        <f>SUM('2018 JAN'!D11,'2018 FEB'!D11,'2018 MAR'!D11,'2018 APRIL'!D11,'2018 MAY'!D11,'2018 JUNE'!D11)</f>
-        <v>3620</v>
+        <v>0</v>
       </c>
       <c r="E11" s="53">
-        <f>SUM('2018 JAN'!E11,'2018 FEB'!E11,'2018 MAR'!E11,'2018 APRIL'!E11,'2018 MAY'!E11,'2018 JUNE'!E11)</f>
-        <v>12780</v>
+        <v>2640</v>
       </c>
       <c r="F11" s="53">
-        <f>SUM('2018 JAN'!F11,'2018 FEB'!F11,'2018 MAR'!F11,'2018 APRIL'!F11,'2018 MAY'!F11,'2018 JUNE'!F11)</f>
-        <v>4260</v>
+        <v>520</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(B11:F11)</f>
-        <v>28440</v>
+        <v>4100</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="53">
-        <f>SUM('2018 JAN'!K11,'2018 FEB'!K11,'2018 MAR'!K11,'2018 APRIL'!K11,'2018 MAY'!K11,'2018 JUNE'!K11)</f>
+      <c r="K11" s="55">
         <v>0</v>
       </c>
       <c r="L11" s="65">
         <f t="shared" si="1"/>
-        <v>14.22</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11360,39 +12272,33 @@
         <v>3</v>
       </c>
       <c r="B12" s="53">
-        <f>SUM('2018 JAN'!B12,'2018 FEB'!B12,'2018 MAR'!B12,'2018 APRIL'!B12,'2018 MAY'!B12,'2018 JUNE'!B12)</f>
-        <v>11840</v>
+        <v>0</v>
       </c>
       <c r="C12" s="53">
-        <f>SUM('2018 JAN'!C12,'2018 FEB'!C12,'2018 MAR'!C12,'2018 APRIL'!C12,'2018 MAY'!C12,'2018 JUNE'!C12)</f>
-        <v>106380</v>
+        <v>14560</v>
       </c>
       <c r="D12" s="53">
-        <f>SUM('2018 JAN'!D12,'2018 FEB'!D12,'2018 MAR'!D12,'2018 APRIL'!D12,'2018 MAY'!D12,'2018 JUNE'!D12)</f>
-        <v>15240</v>
+        <v>0</v>
       </c>
       <c r="E12" s="53">
-        <f>SUM('2018 JAN'!E12,'2018 FEB'!E12,'2018 MAR'!E12,'2018 APRIL'!E12,'2018 MAY'!E12,'2018 JUNE'!E12)</f>
-        <v>103480</v>
+        <v>0</v>
       </c>
       <c r="F12" s="53">
-        <f>SUM('2018 JAN'!F12,'2018 FEB'!F12,'2018 MAR'!F12,'2018 APRIL'!F12,'2018 MAY'!F12,'2018 JUNE'!F12)</f>
-        <v>12540</v>
+        <v>0</v>
       </c>
       <c r="G12" s="51">
         <f>SUM(B12:F12)</f>
-        <v>249480</v>
+        <v>14560</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="53">
-        <f>SUM('2018 JAN'!K12,'2018 FEB'!K12,'2018 MAR'!K12,'2018 APRIL'!K12,'2018 MAY'!K12,'2018 JUNE'!K12)</f>
+      <c r="K12" s="55">
         <v>0</v>
       </c>
       <c r="L12" s="65">
         <f t="shared" si="1"/>
-        <v>124.74</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -11406,21 +12312,18 @@
       <c r="F13" s="99"/>
       <c r="G13" s="63"/>
       <c r="H13" s="50">
-        <f>SUM('2018 JAN'!H13,'2018 FEB'!H13,'2018 MAR'!H13,'2018 APRIL'!H13,'2018 MAY'!H13,'2018 JUNE'!H13)</f>
-        <v>4075437</v>
-      </c>
-      <c r="I13" s="50">
-        <f>SUM('2018 JAN'!I13,'2018 FEB'!I13,'2018 MAR'!I13,'2018 APRIL'!I13,'2018 MAY'!I13,'2018 JUNE'!I13)</f>
-        <v>421800</v>
+        <v>757600</v>
+      </c>
+      <c r="I13" s="57">
+        <v>71000</v>
       </c>
       <c r="J13" s="58"/>
-      <c r="K13" s="50">
-        <f>SUM('2018 JAN'!K13,'2018 FEB'!K13,'2018 MAR'!K13,'2018 APRIL'!K13,'2018 MAY'!K13,'2018 JUNE'!K13)</f>
+      <c r="K13" s="59">
         <v>0</v>
       </c>
       <c r="L13" s="66">
         <f t="shared" si="1"/>
-        <v>2248.6185</v>
+        <v>414.3</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="61" customFormat="1">
@@ -11429,39 +12332,39 @@
       </c>
       <c r="B14" s="51">
         <f>SUM(B6:B13)</f>
-        <v>268340</v>
+        <v>29980</v>
       </c>
       <c r="C14" s="51">
         <f>SUM(C6:C13)</f>
-        <v>379342</v>
+        <v>77886</v>
       </c>
       <c r="D14" s="51">
         <f>SUM(D6:D13)</f>
-        <v>247840</v>
+        <v>42780</v>
       </c>
       <c r="E14" s="51">
         <f t="shared" ref="E14:F14" si="2">SUM(E6:E13)</f>
-        <v>1024940</v>
+        <v>213980</v>
       </c>
       <c r="F14" s="51">
         <f t="shared" si="2"/>
-        <v>233786</v>
+        <v>35175</v>
       </c>
       <c r="G14" s="51">
         <f>SUM(G6:G13)</f>
-        <v>2154248</v>
+        <v>399801</v>
       </c>
       <c r="H14" s="51">
-        <f t="shared" ref="H14:I14" si="3">SUM(H6:H13)</f>
-        <v>4075437</v>
+        <f t="shared" ref="H14" si="3">SUM(H6:H13)</f>
+        <v>757600</v>
       </c>
       <c r="I14" s="51">
-        <f t="shared" si="3"/>
-        <v>467320</v>
+        <f>SUM(I6:I13)</f>
+        <v>93240</v>
       </c>
       <c r="J14" s="51">
         <f>SUM(J6:J13)</f>
-        <v>39809</v>
+        <v>0</v>
       </c>
       <c r="K14" s="51">
         <f t="shared" ref="K14" si="4">SUM(K6:K13)</f>
@@ -11469,45 +12372,45 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="91">
         <f>SUM(B14)/2000</f>
-        <v>134.16999999999999</v>
+        <v>14.99</v>
       </c>
       <c r="C15" s="91">
         <f>SUM(C14)/2000</f>
-        <v>189.67099999999999</v>
+        <v>38.942999999999998</v>
       </c>
       <c r="D15" s="91">
         <f>SUM(D14)/2000</f>
-        <v>123.92</v>
+        <v>21.39</v>
       </c>
       <c r="E15" s="91">
         <f t="shared" ref="E15:K15" si="5">SUM(E14)/2000</f>
-        <v>512.47</v>
+        <v>106.99</v>
       </c>
       <c r="F15" s="91">
         <f t="shared" si="5"/>
-        <v>116.893</v>
+        <v>17.587499999999999</v>
       </c>
       <c r="G15" s="91">
         <f t="shared" si="5"/>
-        <v>1077.124</v>
+        <v>199.90049999999999</v>
       </c>
       <c r="H15" s="91">
         <f t="shared" si="5"/>
-        <v>2037.7184999999999</v>
+        <v>378.8</v>
       </c>
       <c r="I15" s="91">
         <f t="shared" si="5"/>
-        <v>233.66</v>
+        <v>46.62</v>
       </c>
       <c r="J15" s="91">
         <f t="shared" si="5"/>
-        <v>19.904499999999999</v>
+        <v>0</v>
       </c>
       <c r="K15" s="91">
         <f t="shared" si="5"/>
@@ -11515,10 +12418,10 @@
       </c>
       <c r="L15" s="68">
         <f>SUM(L6:L13)</f>
-        <v>3368.4070000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+        <v>625.32050000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11532,7 +12435,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -11580,9 +12483,8 @@
       <c r="K18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="104">
-        <f>SUM('2018 JAN'!L18,'2018 FEB'!L18,'2018 MAR'!L18,'2018 APRIL'!L18,'2018 MAY'!L18,'2018 JUNE'!L18)</f>
-        <v>695.07</v>
+      <c r="L18" s="94">
+        <v>2630</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" ht="19.5" customHeight="1">
@@ -11598,9 +12500,8 @@
       <c r="F19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="53">
-        <f>SUM('2018 JAN'!G19,'2018 FEB'!G19,'2018 MAR'!G19,'2018 APRIL'!G19,'2018 MAY'!G19,'2018 JUNE'!G19)</f>
-        <v>285.83999999999997</v>
+      <c r="G19" s="78">
+        <v>38.200000000000003</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="42"/>
@@ -11608,9 +12509,8 @@
       <c r="K19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="105">
-        <f>SUM('2018 JAN'!L19,'2018 FEB'!L19,'2018 MAR'!L19,'2018 APRIL'!L19,'2018 MAY'!L19,'2018 JUNE'!L19)</f>
-        <v>10900.78</v>
+      <c r="L19" s="94">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="32.25" customHeight="1" thickBot="1">
@@ -11618,24 +12518,21 @@
         <v>42</v>
       </c>
       <c r="B20" s="53">
-        <f>SUM('2018 JAN'!B20,'2018 FEB'!B20,'2018 MAR'!B20,'2018 APRIL'!B20,'2018 MAY'!B20,'2018 JUNE'!B20)</f>
-        <v>7765.2300000000005</v>
+        <v>984.2</v>
       </c>
       <c r="C20" s="53">
-        <f>SUM('2018 JAN'!C20,'2018 FEB'!C20,'2018 MAR'!C20,'2018 APRIL'!C20,'2018 MAY'!C20,'2018 JUNE'!C20)</f>
-        <v>10042</v>
+        <v>1532.4</v>
       </c>
       <c r="D20" s="108">
         <f>B20+C20</f>
-        <v>17807.23</v>
+        <v>2516.6000000000004</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="53">
-        <f>SUM('2018 JAN'!G20,'2018 FEB'!G20,'2018 MAR'!G20,'2018 APRIL'!G20,'2018 MAY'!G20,'2018 JUNE'!G20)</f>
-        <v>36.22</v>
+      <c r="G20" s="78">
+        <v>9.5</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
@@ -11645,7 +12542,7 @@
       </c>
       <c r="L20" s="95">
         <f>SUM(L18:L19)</f>
-        <v>11595.85</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -11653,21 +12550,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="53">
-        <f>SUM('2018 JAN'!B21,'2018 FEB'!B21,'2018 MAR'!B21,'2018 APRIL'!B21,'2018 MAY'!B21,'2018 JUNE'!B21)</f>
-        <v>20773.16</v>
+        <v>3474</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="108">
         <f>B21</f>
-        <v>20773.16</v>
+        <v>3474</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="53">
-        <f>SUM('2018 JAN'!G21,'2018 FEB'!G21,'2018 MAR'!G21,'2018 APRIL'!G21,'2018 MAY'!G21,'2018 JUNE'!G21)</f>
-        <v>37.630000000000003</v>
+      <c r="G21" s="78">
+        <v>0</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="42"/>
@@ -11679,21 +12574,19 @@
         <v>43</v>
       </c>
       <c r="B22" s="53">
-        <f>SUM('2018 JAN'!B22,'2018 FEB'!B22,'2018 MAR'!B22,'2018 APRIL'!B22,'2018 MAY'!B22,'2018 JUNE'!B22)</f>
-        <v>8.9599999999999991</v>
+        <v>2.8</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="108">
         <f>B22</f>
-        <v>8.9599999999999991</v>
+        <v>2.8</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="53">
-        <f>SUM('2018 JAN'!G22,'2018 FEB'!G22,'2018 MAR'!G22,'2018 APRIL'!G22,'2018 MAY'!G22,'2018 JUNE'!G22)</f>
-        <v>5.51</v>
+      <c r="G22" s="78">
+        <v>0</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
@@ -11706,19 +12599,17 @@
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="53">
-        <f>SUM('2018 JAN'!C23,'2018 FEB'!C23,'2018 MAR'!C23,'2018 APRIL'!C23,'2018 MAY'!C23,'2018 JUNE'!C23)</f>
-        <v>2723</v>
-      </c>
-      <c r="D23" s="109">
+        <v>264</v>
+      </c>
+      <c r="D23" s="131">
         <f>C23</f>
-        <v>2723</v>
+        <v>264</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="53">
-        <f>SUM('2018 JAN'!G23,'2018 FEB'!G23,'2018 MAR'!G23,'2018 APRIL'!G23,'2018 MAY'!G23,'2018 JUNE'!G23)</f>
-        <v>32.21</v>
+      <c r="G23" s="78">
+        <v>1.5</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
@@ -11731,56 +12622,54 @@
       </c>
       <c r="B24" s="99"/>
       <c r="C24" s="50">
-        <f>SUM('2018 JAN'!C24,'2018 FEB'!C24,'2018 MAR'!C24,'2018 APRIL'!C24,'2018 MAY'!C24,'2018 JUNE'!C24)</f>
-        <v>2348</v>
-      </c>
-      <c r="D24" s="110">
+        <v>366</v>
+      </c>
+      <c r="D24" s="132">
         <f>C24</f>
-        <v>2348</v>
+        <v>366</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="24" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="81"/>
-      <c r="H24" s="50">
-        <f>SUM('2018 JAN'!H24,'2018 FEB'!H24,'2018 MAR'!H24,'2018 APRIL'!H24,'2018 MAY'!H24,'2018 JUNE'!H24)</f>
-        <v>3.01</v>
+      <c r="H24" s="73">
+        <v>0</v>
       </c>
       <c r="I24" s="43"/>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="111">
         <f>SUM(B20:B22)</f>
-        <v>28547.35</v>
+        <v>4461</v>
       </c>
       <c r="C25" s="106">
         <f>SUM(C20:C24)</f>
-        <v>15113</v>
+        <v>2162.4</v>
       </c>
       <c r="D25" s="107">
         <f>B25+C25</f>
-        <v>43660.35</v>
+        <v>6623.4</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="84">
         <f>SUM(G19:G23)</f>
-        <v>397.40999999999991</v>
+        <v>49.2</v>
       </c>
       <c r="H25" s="76">
         <f>SUM(H24)</f>
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="I25" s="77">
         <f>G25+H25</f>
-        <v>400.4199999999999</v>
+        <v>49.2</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="5"/>
@@ -11801,7 +12690,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -11809,7 +12698,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -11841,11 +12730,11 @@
       </c>
       <c r="B31" s="96">
         <f>L15</f>
-        <v>3368.4070000000002</v>
+        <v>625.32050000000004</v>
       </c>
       <c r="C31" s="46">
         <f>B31/B36</f>
-        <v>5.7067436834887006E-2</v>
+        <v>6.143892556441171E-2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -11855,15 +12744,15 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
-        <v>397.40999999999991</v>
+        <v>49.2</v>
       </c>
       <c r="C32" s="47">
         <f>B32/B36</f>
-        <v>6.7329067041341619E-3</v>
+        <v>4.8339933486413068E-3</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -11879,11 +12768,11 @@
       </c>
       <c r="B33" s="96">
         <f>L20</f>
-        <v>11595.85</v>
+        <v>2880</v>
       </c>
       <c r="C33" s="46">
         <f>B33/B36</f>
-        <v>0.19645649632654974</v>
+        <v>0.28296546431071062</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -11900,11 +12789,11 @@
       </c>
       <c r="B34" s="96">
         <f>C25+H25</f>
-        <v>15116.01</v>
+        <v>2162.4</v>
       </c>
       <c r="C34" s="46">
         <f>B34/B36</f>
-        <v>0.25609492732633565</v>
+        <v>0.21245990278662524</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -11921,11 +12810,11 @@
       </c>
       <c r="B35" s="97">
         <f>B25</f>
-        <v>28547.35</v>
+        <v>4461</v>
       </c>
       <c r="C35" s="48">
         <f>B35/B36</f>
-        <v>0.48364823280809338</v>
+        <v>0.43830171398961115</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -11936,13 +12825,13 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="98">
         <f>SUM(B31:B35)</f>
-        <v>59025.027000000002</v>
+        <v>10177.9205</v>
       </c>
       <c r="C36" s="44">
         <f>SUM(C31:C35)</f>
@@ -11983,10 +12872,6 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="113">
-        <f>SUM(B31:B34)</f>
-        <v>30477.677000000003</v>
-      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -11999,7 +12884,6 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
-      <c r="B40" s="113"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -12339,37 +13223,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
       <c r="A1" s="121" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -12408,7 +13292,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -12448,286 +13332,286 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="e">
-        <f>SUM('2018 JULY'!B6,'2018 AUG'!B6,'2018 SEPT'!B6,'2018 OCT'!B6,'2018 NOV'!B6,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="53" t="e">
-        <f>SUM('2018 JULY'!C6,'2018 AUG'!C6,'2018 SEPT'!C6,'2018 OCT'!C6,'2018 NOV'!C6,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="53" t="e">
-        <f>SUM('2018 JULY'!D6,'2018 AUG'!D6,'2018 SEPT'!D6,'2018 OCT'!D6,'2018 NOV'!D6,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="53" t="e">
-        <f>SUM('2018 JULY'!E6,'2018 AUG'!E6,'2018 SEPT'!E6,'2018 OCT'!E6,'2018 NOV'!E6,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="53" t="e">
-        <f>SUM('2018 JULY'!F6,'2018 AUG'!F6,'2018 SEPT'!F6,'2018 OCT'!F6,'2018 NOV'!F6,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="51" t="e">
-        <f t="shared" ref="G6:G10" si="0">SUM(B6:F6)</f>
-        <v>#REF!</v>
+      <c r="B6" s="53">
+        <f>SUM('2018 JAN'!B6,'2018 FEB'!B6,'2018 MAR'!B6,'2018 APRIL'!B6,'2018 MAY'!B6,'2018 JUNE'!B6,'2018 JULY'!B6,'2018 AUG'!B6,'2018 SEPT'!B6,'2018 OCT'!B6,'2018 NOV'!B6,'2018 DEC'!B6)</f>
+        <v>7678</v>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM('2018 JAN'!C6,'2018 FEB'!C6,'2018 MAR'!C6,'2018 APRIL'!C6,'2018 MAY'!C6,'2018 JUNE'!C6,'2018 JULY'!C6,'2018 AUG'!C6,'2018 SEPT'!C6,'2018 OCT'!C6,'2018 NOV'!C6,'2018 DEC'!C6)</f>
+        <v>9000</v>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM('2018 JAN'!D6,'2018 FEB'!D6,'2018 MAR'!D6,'2018 APRIL'!D6,'2018 MAY'!D6,'2018 JUNE'!D6,'2018 JULY'!D6,'2018 AUG'!D6,'2018 SEPT'!D6,'2018 OCT'!D6,'2018 NOV'!D6,'2018 DEC'!D6)</f>
+        <v>4790</v>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM('2018 JAN'!E6,'2018 FEB'!E6,'2018 MAR'!E6,'2018 APRIL'!E6,'2018 MAY'!E6,'2018 JUNE'!E6,'2018 JULY'!E6,'2018 AUG'!E6,'2018 SEPT'!E6,'2018 OCT'!E6,'2018 NOV'!E6,'2018 DEC'!E6)</f>
+        <v>43940</v>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM('2018 JAN'!F6,'2018 FEB'!F6,'2018 MAR'!F6,'2018 APRIL'!F6,'2018 MAY'!F6,'2018 JUNE'!F6,'2018 JULY'!F6,'2018 AUG'!F6,'2018 SEPT'!F6,'2018 OCT'!F6,'2018 NOV'!F6,'2018 DEC'!F6)</f>
+        <v>4606</v>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM('2018 JAN'!G6,'2018 FEB'!G6,'2018 MAR'!G6,'2018 APRIL'!G6,'2018 MAY'!G6,'2018 JUNE'!G6,'2018 JULY'!G6,'2018 AUG'!G6,'2018 SEPT'!G6,'2018 OCT'!G6,'2018 NOV'!G6,'2018 DEC'!G6)</f>
+        <v>70014</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="53" t="e">
-        <f>SUM('2018 JULY'!K6,'2018 AUG'!K6,'2018 SEPT'!K6,'2018 OCT'!K6,'2018 NOV'!K6,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="65" t="e">
+      <c r="K6" s="53">
+        <f>SUM('2018 JULY'!K6,'2018 AUG'!K6,'2018 SEPT'!K6,'2018 OCT'!K6,'2018 NOV'!K6,'2018 DEC'!K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="65">
         <f>SUM(G6:K6)/2000</f>
-        <v>#REF!</v>
+        <v>35.006999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="53" t="e">
-        <f>SUM('2018 JULY'!B7,'2018 AUG'!B7,'2018 SEPT'!B7,'2018 OCT'!B7,'2018 NOV'!B7,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="53" t="e">
-        <f>SUM('2018 JULY'!C7,'2018 AUG'!C7,'2018 SEPT'!C7,'2018 OCT'!C7,'2018 NOV'!C7,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="53" t="e">
-        <f>SUM('2018 JULY'!D7,'2018 AUG'!D7,'2018 SEPT'!D7,'2018 OCT'!D7,'2018 NOV'!D7,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="53" t="e">
-        <f>SUM('2018 JULY'!E7,'2018 AUG'!E7,'2018 SEPT'!E7,'2018 OCT'!E7,'2018 NOV'!E7,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="53" t="e">
-        <f>SUM('2018 JULY'!F7,'2018 AUG'!F7,'2018 SEPT'!F7,'2018 OCT'!F7,'2018 NOV'!F7,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B7" s="53">
+        <f>SUM('2018 JAN'!B7,'2018 FEB'!B7,'2018 MAR'!B7,'2018 APRIL'!B7,'2018 MAY'!B7,'2018 JUNE'!B7,'2018 JULY'!B7,'2018 AUG'!B7,'2018 SEPT'!B7,'2018 OCT'!B7,'2018 NOV'!B7,'2018 DEC'!B7)</f>
+        <v>66280</v>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM('2018 JAN'!C7,'2018 FEB'!C7,'2018 MAR'!C7,'2018 APRIL'!C7,'2018 MAY'!C7,'2018 JUNE'!C7,'2018 JULY'!C7,'2018 AUG'!C7,'2018 SEPT'!C7,'2018 OCT'!C7,'2018 NOV'!C7,'2018 DEC'!C7)</f>
+        <v>86973</v>
+      </c>
+      <c r="D7" s="53">
+        <f>SUM('2018 JAN'!D7,'2018 FEB'!D7,'2018 MAR'!D7,'2018 APRIL'!D7,'2018 MAY'!D7,'2018 JUNE'!D7,'2018 JULY'!D7,'2018 AUG'!D7,'2018 SEPT'!D7,'2018 OCT'!D7,'2018 NOV'!D7,'2018 DEC'!D7)</f>
+        <v>66540</v>
+      </c>
+      <c r="E7" s="53">
+        <f>SUM('2018 JAN'!E7,'2018 FEB'!E7,'2018 MAR'!E7,'2018 APRIL'!E7,'2018 MAY'!E7,'2018 JUNE'!E7,'2018 JULY'!E7,'2018 AUG'!E7,'2018 SEPT'!E7,'2018 OCT'!E7,'2018 NOV'!E7,'2018 DEC'!E7)</f>
+        <v>327730</v>
+      </c>
+      <c r="F7" s="53">
+        <f>SUM('2018 JAN'!F7,'2018 FEB'!F7,'2018 MAR'!F7,'2018 APRIL'!F7,'2018 MAY'!F7,'2018 JUNE'!F7,'2018 JULY'!F7,'2018 AUG'!F7,'2018 SEPT'!F7,'2018 OCT'!F7,'2018 NOV'!F7,'2018 DEC'!F7)</f>
+        <v>39715</v>
+      </c>
+      <c r="G7" s="53">
+        <f>SUM('2018 JAN'!G7,'2018 FEB'!G7,'2018 MAR'!G7,'2018 APRIL'!G7,'2018 MAY'!G7,'2018 JUNE'!G7,'2018 JULY'!G7,'2018 AUG'!G7,'2018 SEPT'!G7,'2018 OCT'!G7,'2018 NOV'!G7,'2018 DEC'!G7)</f>
+        <v>587238</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="53" t="e">
-        <f>SUM('2018 JULY'!K7,'2018 AUG'!K7,'2018 SEPT'!K7,'2018 OCT'!K7,'2018 NOV'!K7,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="65" t="e">
+      <c r="K7" s="53">
+        <f>SUM('2018 JULY'!K7,'2018 AUG'!K7,'2018 SEPT'!K7,'2018 OCT'!K7,'2018 NOV'!K7,'2018 DEC'!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="65">
         <f>SUM(G7:K7)/2000</f>
-        <v>#REF!</v>
+        <v>293.61900000000003</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53" t="e">
-        <f>SUM('2018 JULY'!B8,'2018 AUG'!B8,'2018 SEPT'!B8,'2018 OCT'!B8,'2018 NOV'!B8,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="53" t="e">
-        <f>SUM('2018 JULY'!C8,'2018 AUG'!C8,'2018 SEPT'!C8,'2018 OCT'!C8,'2018 NOV'!C8,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="53" t="e">
-        <f>SUM('2018 JULY'!D8,'2018 AUG'!D8,'2018 SEPT'!D8,'2018 OCT'!D8,'2018 NOV'!D8,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="53" t="e">
-        <f>SUM('2018 JULY'!E8,'2018 AUG'!E8,'2018 SEPT'!E8,'2018 OCT'!E8,'2018 NOV'!E8,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="53" t="e">
-        <f>SUM('2018 JULY'!F8,'2018 AUG'!F8,'2018 SEPT'!F8,'2018 OCT'!F8,'2018 NOV'!F8,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B8" s="53">
+        <f>SUM('2018 JAN'!B8,'2018 FEB'!B8,'2018 MAR'!B8,'2018 APRIL'!B8,'2018 MAY'!B8,'2018 JUNE'!B8,'2018 JULY'!B8,'2018 AUG'!B8,'2018 SEPT'!B8,'2018 OCT'!B8,'2018 NOV'!B8,'2018 DEC'!B8)</f>
+        <v>109360</v>
+      </c>
+      <c r="C8" s="53">
+        <f>SUM('2018 JAN'!C8,'2018 FEB'!C8,'2018 MAR'!C8,'2018 APRIL'!C8,'2018 MAY'!C8,'2018 JUNE'!C8,'2018 JULY'!C8,'2018 AUG'!C8,'2018 SEPT'!C8,'2018 OCT'!C8,'2018 NOV'!C8,'2018 DEC'!C8)</f>
+        <v>191390</v>
+      </c>
+      <c r="D8" s="53">
+        <f>SUM('2018 JAN'!D8,'2018 FEB'!D8,'2018 MAR'!D8,'2018 APRIL'!D8,'2018 MAY'!D8,'2018 JUNE'!D8,'2018 JULY'!D8,'2018 AUG'!D8,'2018 SEPT'!D8,'2018 OCT'!D8,'2018 NOV'!D8,'2018 DEC'!D8)</f>
+        <v>142940</v>
+      </c>
+      <c r="E8" s="53">
+        <f>SUM('2018 JAN'!E8,'2018 FEB'!E8,'2018 MAR'!E8,'2018 APRIL'!E8,'2018 MAY'!E8,'2018 JUNE'!E8,'2018 JULY'!E8,'2018 AUG'!E8,'2018 SEPT'!E8,'2018 OCT'!E8,'2018 NOV'!E8,'2018 DEC'!E8)</f>
+        <v>488608</v>
+      </c>
+      <c r="F8" s="53">
+        <f>SUM('2018 JAN'!F8,'2018 FEB'!F8,'2018 MAR'!F8,'2018 APRIL'!F8,'2018 MAY'!F8,'2018 JUNE'!F8,'2018 JULY'!F8,'2018 AUG'!F8,'2018 SEPT'!F8,'2018 OCT'!F8,'2018 NOV'!F8,'2018 DEC'!F8)</f>
+        <v>196060</v>
+      </c>
+      <c r="G8" s="53">
+        <f>SUM('2018 JAN'!G8,'2018 FEB'!G8,'2018 MAR'!G8,'2018 APRIL'!G8,'2018 MAY'!G8,'2018 JUNE'!G8,'2018 JULY'!G8,'2018 AUG'!G8,'2018 SEPT'!G8,'2018 OCT'!G8,'2018 NOV'!G8,'2018 DEC'!G8)</f>
+        <v>1128358</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="53" t="e">
-        <f>SUM('2018 JULY'!K8,'2018 AUG'!K8,'2018 SEPT'!K8,'2018 OCT'!K8,'2018 NOV'!K8,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="65" t="e">
+      <c r="K8" s="53">
+        <f>SUM('2018 JULY'!K8,'2018 AUG'!K8,'2018 SEPT'!K8,'2018 OCT'!K8,'2018 NOV'!K8,'2018 DEC'!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="65">
         <f>SUM(G8:K8)/2000</f>
-        <v>#REF!</v>
+        <v>564.17899999999997</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="e">
-        <f>SUM('2018 JULY'!B9,'2018 AUG'!B9,'2018 SEPT'!B9,'2018 OCT'!B9,'2018 NOV'!C9,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="53" t="e">
-        <f>SUM('2018 JULY'!C9,'2018 AUG'!C9,'2018 SEPT'!C9,'2018 OCT'!C9,'2018 NOV'!#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="53" t="e">
-        <f>SUM('2018 JULY'!D9,'2018 AUG'!D9,'2018 SEPT'!D9,'2018 OCT'!D9,'2018 NOV'!D9,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="53" t="e">
-        <f>SUM('2018 JULY'!E9,'2018 AUG'!E9,'2018 SEPT'!E9,'2018 OCT'!E9,'2018 NOV'!E9,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="53" t="e">
-        <f>SUM('2018 JULY'!F9,'2018 AUG'!F9,'2018 SEPT'!F9,'2018 OCT'!F9,'2018 NOV'!F9,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="B9" s="53">
+        <f>SUM('2018 JAN'!B9,'2018 FEB'!B9,'2018 MAR'!B9,'2018 APRIL'!B9,'2018 MAY'!B9,'2018 JUNE'!B9,'2018 JULY'!B9,'2018 AUG'!B9,'2018 SEPT'!B9,'2018 OCT'!B9,'2018 NOV'!C9,'2018 DEC'!B9)</f>
+        <v>186720</v>
+      </c>
+      <c r="C9" s="53">
+        <f>SUM('2018 JAN'!C9,'2018 FEB'!C9,'2018 MAR'!C9,'2018 APRIL'!C9,'2018 MAY'!C9,'2018 JUNE'!C9,'2018 JULY'!C9,'2018 AUG'!C9,'2018 SEPT'!C9,'2018 OCT'!C9,'2018 NOV'!C9,'2018 DEC'!C9)</f>
+        <v>259960</v>
+      </c>
+      <c r="D9" s="53">
+        <f>SUM('2018 JAN'!D9,'2018 FEB'!D9,'2018 MAR'!D9,'2018 APRIL'!D9,'2018 MAY'!D9,'2018 JUNE'!D9,'2018 JULY'!D9,'2018 AUG'!D9,'2018 SEPT'!D9,'2018 OCT'!D9,'2018 NOV'!D9,'2018 DEC'!D9)</f>
+        <v>176840</v>
+      </c>
+      <c r="E9" s="53">
+        <f>SUM('2018 JAN'!E9,'2018 FEB'!E9,'2018 MAR'!E9,'2018 APRIL'!E9,'2018 MAY'!E9,'2018 JUNE'!E9,'2018 JULY'!E9,'2018 AUG'!E9,'2018 SEPT'!E9,'2018 OCT'!E9,'2018 NOV'!E9,'2018 DEC'!E9)</f>
+        <v>747843</v>
+      </c>
+      <c r="F9" s="53">
+        <f>SUM('2018 JAN'!F9,'2018 FEB'!F9,'2018 MAR'!F9,'2018 APRIL'!F9,'2018 MAY'!F9,'2018 JUNE'!F9,'2018 JULY'!F9,'2018 AUG'!F9,'2018 SEPT'!F9,'2018 OCT'!F9,'2018 NOV'!F9,'2018 DEC'!F9)</f>
+        <v>93370</v>
+      </c>
+      <c r="G9" s="53">
+        <f>SUM('2018 JAN'!G9,'2018 FEB'!G9,'2018 MAR'!G9,'2018 APRIL'!G9,'2018 MAY'!G9,'2018 JUNE'!G9,'2018 JULY'!G9,'2018 AUG'!G9,'2018 SEPT'!G9,'2018 OCT'!G9,'2018 NOV'!G9,'2018 DEC'!G9)</f>
+        <v>1431933</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="54"/>
-      <c r="J9" s="53" t="e">
-        <f>SUM('2018 JULY'!J9,'2018 AUG'!J9,'2018 SEPT'!J9,'2018 OCT'!J9,'2018 NOV'!J9,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="53" t="e">
-        <f>SUM('2018 JULY'!K9,'2018 AUG'!K9,'2018 SEPT'!K9,'2018 OCT'!K9,'2018 NOV'!K9,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="65" t="e">
-        <f t="shared" ref="L9:L13" si="1">SUM(G9:K9)/2000</f>
-        <v>#REF!</v>
+      <c r="J9" s="53">
+        <f>SUM('2018 JAN'!J9,'2018 FEB'!J9,'2018 MAR'!J9,'2018 APRIL'!J9,'2018 MAY'!J9,'2018 JUNE'!J9,'2018 JULY'!J9,'2018 AUG'!J9,'2018 SEPT'!J9,'2018 OCT'!J9,'2018 NOV'!J9,'2018 DEC'!J9)</f>
+        <v>66515</v>
+      </c>
+      <c r="K9" s="53">
+        <f>SUM('2018 JULY'!K9,'2018 AUG'!K9,'2018 SEPT'!K9,'2018 OCT'!K9,'2018 NOV'!K9,'2018 DEC'!K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="65">
+        <f t="shared" ref="L9:L13" si="0">SUM(G9:K9)/2000</f>
+        <v>749.22400000000005</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="53" t="e">
-        <f>SUM('2018 JULY'!B10,'2018 AUG'!B10,'2018 SEPT'!B10,'2018 OCT'!B10,'2018 NOV'!B10,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="53" t="e">
-        <f>SUM('2018 JULY'!C10,'2018 AUG'!C10,'2018 SEPT'!C10,'2018 OCT'!C10,'2018 NOV'!C10,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="53" t="e">
-        <f>SUM('2018 JULY'!D10,'2018 AUG'!D10,'2018 SEPT'!D10,'2018 OCT'!D10,'2018 NOV'!D10,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="53" t="e">
-        <f>SUM('2018 JULY'!E10,'2018 AUG'!E10,'2018 SEPT'!E10,'2018 OCT'!E10,'2018 NOV'!E10,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="53" t="e">
-        <f>SUM('2018 JULY'!F10,'2018 AUG'!F10,'2018 SEPT'!F10,'2018 OCT'!F10,'2018 NOV'!F10,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="51" t="e">
+      <c r="B10" s="53">
+        <f>SUM('2018 JAN'!B10,'2018 FEB'!B10,'2018 MAR'!B10,'2018 APRIL'!B10,'2018 MAY'!B10,'2018 JUNE'!B10,'2018 JULY'!B10,'2018 AUG'!B10,'2018 SEPT'!B10,'2018 OCT'!B10,'2018 NOV'!B10,'2018 DEC'!B10)</f>
+        <v>147540</v>
+      </c>
+      <c r="C10" s="53">
+        <f>SUM('2018 JAN'!C10,'2018 FEB'!C10,'2018 MAR'!C10,'2018 APRIL'!C10,'2018 MAY'!C10,'2018 JUNE'!C10,'2018 JULY'!C10,'2018 AUG'!C10,'2018 SEPT'!C10,'2018 OCT'!C10,'2018 NOV'!C10,'2018 DEC'!C10)</f>
+        <v>138431</v>
+      </c>
+      <c r="D10" s="53">
+        <f>SUM('2018 JAN'!D10,'2018 FEB'!D10,'2018 MAR'!D10,'2018 APRIL'!D10,'2018 MAY'!D10,'2018 JUNE'!D10,'2018 JULY'!D10,'2018 AUG'!D10,'2018 SEPT'!D10,'2018 OCT'!D10,'2018 NOV'!D10,'2018 DEC'!D10)</f>
+        <v>113180</v>
+      </c>
+      <c r="E10" s="53">
+        <f>SUM('2018 JAN'!E10,'2018 FEB'!E10,'2018 MAR'!E10,'2018 APRIL'!E10,'2018 MAY'!E10,'2018 JUNE'!E10,'2018 JULY'!E10,'2018 AUG'!E10,'2018 SEPT'!E10,'2018 OCT'!E10,'2018 NOV'!E10,'2018 DEC'!E10)</f>
+        <v>469533</v>
+      </c>
+      <c r="F10" s="53">
+        <f>SUM('2018 JAN'!F10,'2018 FEB'!F10,'2018 MAR'!F10,'2018 APRIL'!F10,'2018 MAY'!F10,'2018 JUNE'!F10,'2018 JULY'!F10,'2018 AUG'!F10,'2018 SEPT'!F10,'2018 OCT'!F10,'2018 NOV'!F10,'2018 DEC'!F10)</f>
+        <v>105846</v>
+      </c>
+      <c r="G10" s="53">
+        <f>SUM('2018 JAN'!G10,'2018 FEB'!G10,'2018 MAR'!G10,'2018 APRIL'!G10,'2018 MAY'!G10,'2018 JUNE'!G10,'2018 JULY'!G10,'2018 AUG'!G10,'2018 SEPT'!G10,'2018 OCT'!G10,'2018 NOV'!G10,'2018 DEC'!G10)</f>
+        <v>974530</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="53">
+        <f>SUM('2018 JAN'!I10,'2018 FEB'!I10,'2018 MAR'!I10,'2018 APRIL'!I10,'2018 MAY'!I10,'2018 JUNE'!I10,'2018 JULY'!I10,'2018 AUG'!I10,'2018 SEPT'!I10,'2018 OCT'!I13,'2018 NOV'!I13,'2018 DEC'!I13)</f>
+        <v>370530</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="53">
+        <f>SUM('2018 JULY'!K10,'2018 AUG'!K10,'2018 SEPT'!K10,'2018 OCT'!K10,'2018 NOV'!K10,'2018 DEC'!K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="65">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="53" t="e">
-        <f>SUM('2018 JULY'!I10,'2018 AUG'!I10,'2018 SEPT'!I10,'2018 OCT'!I13,'2018 NOV'!I13,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="53" t="e">
-        <f>SUM('2018 JULY'!K10,'2018 AUG'!K10,'2018 SEPT'!K10,'2018 OCT'!K10,'2018 NOV'!K10,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="65" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>672.53</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="53" t="e">
-        <f>SUM('2018 JULY'!B11,'2018 AUG'!B11,'2018 SEPT'!B11,'2018 OCT'!B11,'2018 NOV'!B11,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="53" t="e">
-        <f>SUM('2018 JULY'!C11,'2018 AUG'!C11,'2018 SEPT'!C11,'2018 OCT'!C11,'2018 NOV'!C11,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="53" t="e">
-        <f>SUM('2018 JULY'!D11,'2018 AUG'!D11,'2018 SEPT'!D11,'2018 OCT'!D11,'2018 NOV'!D11,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="53" t="e">
-        <f>SUM('2018 JULY'!E11,'2018 AUG'!E11,'2018 SEPT'!E11,'2018 OCT'!E11,'2018 NOV'!E11,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="53" t="e">
-        <f>SUM('2018 JULY'!F11,'2018 AUG'!F11,'2018 SEPT'!F11,'2018 OCT'!F11,'2018 NOV'!F11,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="51" t="e">
-        <f>SUM(B11:F11)</f>
-        <v>#REF!</v>
+      <c r="B11" s="53">
+        <f>SUM('2018 JAN'!B11,'2018 FEB'!B11,'2018 MAR'!B11,'2018 APRIL'!B11,'2018 MAY'!B11,'2018 JUNE'!B11,'2018 JULY'!B11,'2018 AUG'!B11,'2018 SEPT'!B11,'2018 OCT'!B11,'2018 NOV'!B11,'2018 DEC'!B11)</f>
+        <v>8860</v>
+      </c>
+      <c r="C11" s="53">
+        <f>SUM('2018 JAN'!C11,'2018 FEB'!C11,'2018 MAR'!C11,'2018 APRIL'!C11,'2018 MAY'!C11,'2018 JUNE'!C11,'2018 JULY'!C11,'2018 AUG'!C11,'2018 SEPT'!C11,'2018 OCT'!C11,'2018 NOV'!C11,'2018 DEC'!C11)</f>
+        <v>9880</v>
+      </c>
+      <c r="D11" s="53">
+        <f>SUM('2018 JAN'!D11,'2018 FEB'!D11,'2018 MAR'!D11,'2018 APRIL'!D11,'2018 MAY'!D11,'2018 JUNE'!D11,'2018 JULY'!D11,'2018 AUG'!D11,'2018 SEPT'!D11,'2018 OCT'!D11,'2018 NOV'!D11,'2018 DEC'!D11)</f>
+        <v>6060</v>
+      </c>
+      <c r="E11" s="53">
+        <f>SUM('2018 JAN'!E11,'2018 FEB'!E11,'2018 MAR'!E11,'2018 APRIL'!E11,'2018 MAY'!E11,'2018 JUNE'!E11,'2018 JULY'!E11,'2018 AUG'!E11,'2018 SEPT'!E11,'2018 OCT'!E11,'2018 NOV'!E11,'2018 DEC'!E11)</f>
+        <v>28260</v>
+      </c>
+      <c r="F11" s="53">
+        <f>SUM('2018 JAN'!F11,'2018 FEB'!F11,'2018 MAR'!F11,'2018 APRIL'!F11,'2018 MAY'!F11,'2018 JUNE'!F11,'2018 JULY'!F11,'2018 AUG'!F11,'2018 SEPT'!F11,'2018 OCT'!F11,'2018 NOV'!F11,'2018 DEC'!F11)</f>
+        <v>5960</v>
+      </c>
+      <c r="G11" s="53">
+        <f>SUM('2018 JAN'!G11,'2018 FEB'!G11,'2018 MAR'!G11,'2018 APRIL'!G11,'2018 MAY'!G11,'2018 JUNE'!G11,'2018 JULY'!G11,'2018 AUG'!G11,'2018 SEPT'!G11,'2018 OCT'!G11,'2018 NOV'!G11,'2018 DEC'!G11)</f>
+        <v>59020</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="53" t="e">
-        <f>SUM('2018 JULY'!K11,'2018 AUG'!K11,'2018 SEPT'!K11,'2018 OCT'!K11,'2018 NOV'!K11,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="65" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="K11" s="53">
+        <f>SUM('2018 JULY'!K11,'2018 AUG'!K11,'2018 SEPT'!K11,'2018 OCT'!K11,'2018 NOV'!K11,'2018 DEC'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="65">
+        <f t="shared" si="0"/>
+        <v>29.51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="53" t="e">
-        <f>SUM('2018 JULY'!B12,'2018 AUG'!B12,'2018 SEPT'!B12,'2018 OCT'!B12,'2018 NOV'!F12,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="53" t="e">
-        <f>SUM('2018 JULY'!C12,'2018 AUG'!C12,'2018 SEPT'!C12,'2018 OCT'!C12,'2018 NOV'!C12,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="53" t="e">
-        <f>SUM('2018 JULY'!D12,'2018 AUG'!D12,'2018 SEPT'!D12,'2018 OCT'!D12,'2018 NOV'!D12,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="53" t="e">
-        <f>SUM('2018 JULY'!E12,'2018 AUG'!E12,'2018 SEPT'!E12,'2018 OCT'!E12,'2018 NOV'!E12,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="53" t="e">
-        <f>SUM('2018 JULY'!F12,'2018 AUG'!F12,'2018 SEPT'!F12,'2018 OCT'!F12,'2018 NOV'!#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="51" t="e">
-        <f>SUM(B12:F12)</f>
-        <v>#REF!</v>
+      <c r="B12" s="53">
+        <f>SUM('2018 JAN'!B12,'2018 FEB'!B12,'2018 MAR'!B12,'2018 APRIL'!B12,'2018 MAY'!B12,'2018 JUNE'!B12,'2018 JULY'!B12,'2018 AUG'!B12,'2018 SEPT'!B12,'2018 OCT'!B12,'2018 NOV'!F12,'2018 DEC'!B12)</f>
+        <v>21700</v>
+      </c>
+      <c r="C12" s="53">
+        <f>SUM('2018 JAN'!C12,'2018 FEB'!C12,'2018 MAR'!C12,'2018 APRIL'!C12,'2018 MAY'!C12,'2018 JUNE'!C12,'2018 JULY'!C12,'2018 AUG'!C12,'2018 SEPT'!C12,'2018 OCT'!C12,'2018 NOV'!C12,'2018 DEC'!C12)</f>
+        <v>150920</v>
+      </c>
+      <c r="D12" s="53">
+        <f>SUM('2018 JAN'!D12,'2018 FEB'!D12,'2018 MAR'!D12,'2018 APRIL'!D12,'2018 MAY'!D12,'2018 JUNE'!D12,'2018 JULY'!D12,'2018 AUG'!D12,'2018 SEPT'!D12,'2018 OCT'!D12,'2018 NOV'!D12,'2018 DEC'!D12)</f>
+        <v>33540</v>
+      </c>
+      <c r="E12" s="53">
+        <f>SUM('2018 JAN'!E12,'2018 FEB'!E12,'2018 MAR'!E12,'2018 APRIL'!E12,'2018 MAY'!E12,'2018 JUNE'!E12,'2018 JULY'!E12,'2018 AUG'!E12,'2018 SEPT'!E12,'2018 OCT'!E12,'2018 NOV'!E12,'2018 DEC'!E12)</f>
+        <v>126610</v>
+      </c>
+      <c r="F12" s="53">
+        <f>SUM('2018 JAN'!F12,'2018 FEB'!F12,'2018 MAR'!F12,'2018 APRIL'!F12,'2018 MAY'!F12,'2018 JUNE'!F12,'2018 JULY'!F12,'2018 AUG'!F12,'2018 SEPT'!F12,'2018 OCT'!F12,'2018 NOV'!F12,'2018 DEC'!F12)</f>
+        <v>25380</v>
+      </c>
+      <c r="G12" s="53">
+        <f>SUM('2018 JAN'!G12,'2018 FEB'!G12,'2018 MAR'!G12,'2018 APRIL'!G12,'2018 MAY'!G12,'2018 JUNE'!G12,'2018 JULY'!G12,'2018 AUG'!G12,'2018 SEPT'!G12,'2018 OCT'!G12,'2018 NOV'!G12,'2018 DEC'!G12)</f>
+        <v>354350</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="53" t="e">
-        <f>SUM('2018 JULY'!K12,'2018 AUG'!K12,'2018 SEPT'!K12,'2018 OCT'!K12,'2018 NOV'!K12,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="65" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="K12" s="53">
+        <f>SUM('2018 JULY'!K12,'2018 AUG'!K12,'2018 SEPT'!K12,'2018 OCT'!K12,'2018 NOV'!K12,'2018 DEC'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="65">
+        <f t="shared" si="0"/>
+        <v>177.17500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12740,120 +13624,120 @@
       <c r="E13" s="99"/>
       <c r="F13" s="99"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="50" t="e">
-        <f>SUM('2018 JULY'!H13,'2018 AUG'!H13,'2018 SEPT'!H13,'2018 OCT'!H13,'2018 NOV'!H13,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="50" t="e">
-        <f>SUM('2018 JULY'!I13,'2018 AUG'!I13,'2018 SEPT'!I13,'2018 OCT'!#REF!,'2018 NOV'!#REF!,#REF!)</f>
-        <v>#REF!</v>
+      <c r="H13" s="50">
+        <f>SUM('2018 JAN'!H13,'2018 FEB'!H13,'2018 MAR'!H13,'2018 APRIL'!H13,'2018 MAY'!H13,'2018 JUNE'!H13,'2018 JULY'!H13,'2018 AUG'!H13,'2018 SEPT'!H13,'2018 OCT'!H13,'2018 NOV'!H13,'2018 DEC'!H13)</f>
+        <v>8538391</v>
+      </c>
+      <c r="I13" s="50">
+        <f>SUM('2018 JAN'!I13,'2018 FEB'!I13,'2018 MAR'!I13,'2018 APRIL'!I13,'2018 MAY'!I13,'2018 JUNE'!I13,'2018 JULY'!I13,'2018 AUG'!I13,'2018 SEPT'!I13,'2018 OCT'!I13,'2018 NOV'!I13,'2018 DEC'!I13)</f>
+        <v>945164</v>
       </c>
       <c r="J13" s="58"/>
-      <c r="K13" s="53" t="e">
-        <f>SUM('2018 JULY'!K13,'2018 AUG'!K13,'2018 SEPT'!K13,'2018 OCT'!K13,'2018 NOV'!K13,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="66" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="K13" s="50">
+        <f>SUM('2018 JULY'!K13,'2018 AUG'!K13,'2018 SEPT'!K13,'2018 OCT'!K13,'2018 NOV'!K13,'2018 DEC'!K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="66">
+        <f t="shared" si="0"/>
+        <v>4741.7775000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="61" customFormat="1">
       <c r="A14" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="51" t="e">
+      <c r="B14" s="51">
         <f>SUM(B6:B13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C14" s="51" t="e">
+        <v>548138</v>
+      </c>
+      <c r="C14" s="51">
         <f>SUM(C6:C13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="51" t="e">
+        <v>846554</v>
+      </c>
+      <c r="D14" s="51">
         <f>SUM(D6:D13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="51" t="e">
-        <f t="shared" ref="E14:F14" si="2">SUM(E6:E13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="51" t="e">
+        <v>543890</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" ref="E14:F14" si="1">SUM(E6:E13)</f>
+        <v>2232524</v>
+      </c>
+      <c r="F14" s="51">
+        <f t="shared" si="1"/>
+        <v>470937</v>
+      </c>
+      <c r="G14" s="51">
+        <f>SUM(G6:G13)</f>
+        <v>4605443</v>
+      </c>
+      <c r="H14" s="51">
+        <f t="shared" ref="H14:I14" si="2">SUM(H6:H13)</f>
+        <v>8538391</v>
+      </c>
+      <c r="I14" s="51">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="51" t="e">
-        <f>SUM(G6:G13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="51" t="e">
-        <f t="shared" ref="H14:I14" si="3">SUM(H6:H13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="51" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="51" t="e">
+        <v>1315694</v>
+      </c>
+      <c r="J14" s="51">
         <f>SUM(J6:J13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="51" t="e">
-        <f t="shared" ref="K14" si="4">SUM(K6:K13)</f>
-        <v>#REF!</v>
+        <v>66515</v>
+      </c>
+      <c r="K14" s="51">
+        <f t="shared" ref="K14" si="3">SUM(K6:K13)</f>
+        <v>0</v>
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="91" t="e">
+      <c r="B15" s="91">
         <f>SUM(B14)/2000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C15" s="91" t="e">
+        <v>274.06900000000002</v>
+      </c>
+      <c r="C15" s="91">
         <f>SUM(C14)/2000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="91" t="e">
+        <v>423.27699999999999</v>
+      </c>
+      <c r="D15" s="91">
         <f>SUM(D14)/2000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="91" t="e">
-        <f t="shared" ref="E15:K15" si="5">SUM(E14)/2000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="91" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="91" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="91" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="91" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="91" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="91" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="68" t="e">
+        <v>271.94499999999999</v>
+      </c>
+      <c r="E15" s="91">
+        <f t="shared" ref="E15:K15" si="4">SUM(E14)/2000</f>
+        <v>1116.2619999999999</v>
+      </c>
+      <c r="F15" s="91">
+        <f t="shared" si="4"/>
+        <v>235.46850000000001</v>
+      </c>
+      <c r="G15" s="91">
+        <f t="shared" si="4"/>
+        <v>2302.7215000000001</v>
+      </c>
+      <c r="H15" s="91">
+        <f t="shared" si="4"/>
+        <v>4269.1954999999998</v>
+      </c>
+      <c r="I15" s="91">
+        <f t="shared" si="4"/>
+        <v>657.84699999999998</v>
+      </c>
+      <c r="J15" s="91">
+        <f t="shared" si="4"/>
+        <v>33.2575</v>
+      </c>
+      <c r="K15" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="68">
         <f>SUM(L6:L13)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+        <v>7263.0215000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -12867,7 +13751,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -12915,9 +13799,9 @@
       <c r="K18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="104" t="e">
-        <f>SUM('2018 JULY'!L18,'2018 AUG'!L18,'2018 SEPT'!L18,'2018 OCT'!L18,'2018 NOV'!L18,#REF!)</f>
-        <v>#REF!</v>
+      <c r="L18" s="104">
+        <f>SUM('2018 JAN'!L18,'2018 FEB'!L18,'2018 MAR'!L18,'2018 APRIL'!L18,'2018 MAY'!L18,'2018 JUNE'!L18,'2018 JULY'!L18,'2018 AUG'!L18,'2018 SEPT'!L18,'2018 OCT'!L18,'2018 NOV'!L18,'2018 DEC'!L18)</f>
+        <v>5227.12</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" ht="19.5" customHeight="1">
@@ -12933,9 +13817,9 @@
       <c r="F19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="53" t="e">
-        <f>SUM('2018 JULY'!G19,'2018 AUG'!G19,'2018 SEPT'!G19,'2018 OCT'!G19,'2018 NOV'!G19,#REF!)</f>
-        <v>#REF!</v>
+      <c r="G19" s="53">
+        <f>SUM('2018 JAN'!G19,'2018 FEB'!G19,'2018 MAR'!G19,'2018 APRIL'!G19,'2018 MAY'!G19,'2018 JUNE'!G19,'2018 JULY'!G19,'2018 AUG'!G19,'2018 SEPT'!G19,'2018 OCT'!G19,'2018 NOV'!G19,'2018 DEC'!G19)</f>
+        <v>572.20000000000005</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="42"/>
@@ -12943,34 +13827,34 @@
       <c r="K19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="104" t="e">
-        <f>SUM('2018 JULY'!L19,'2018 AUG'!L19,'2018 SEPT'!L19,'2018 OCT'!L19,'2018 NOV'!L19,#REF!)</f>
-        <v>#REF!</v>
+      <c r="L19" s="104">
+        <f>SUM('2018 JAN'!L19,'2018 FEB'!L19,'2018 MAR'!L19,'2018 APRIL'!L19,'2018 MAY'!L19,'2018 JUNE'!L19,'2018 JULY'!L19,'2018 AUG'!L19,'2018 SEPT'!L19,'2018 OCT'!L19,'2018 NOV'!L19,'2018 DEC'!L19)</f>
+        <v>21653.27</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="32.25" customHeight="1" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="53" t="e">
-        <f>SUM('2018 JULY'!B20,'2018 AUG'!B20,'2018 SEPT'!B20,'2018 OCT'!B20,'2018 NOV'!B20,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="53" t="e">
-        <f>SUM('2018 JULY'!C20,'2018 AUG'!C20,'2018 SEPT'!C20,'2018 OCT'!C20,'2018 NOV'!C20,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="33" t="e">
+      <c r="B20" s="53">
+        <f>SUM('2018 JAN'!B20,'2018 FEB'!B20,'2018 MAR'!B20,'2018 APRIL'!B20,'2018 MAY'!B20,'2018 JUNE'!B20,'2018 JULY'!B20,'2018 AUG'!B20,'2018 SEPT'!B20,'2018 OCT'!B20,'2018 NOV'!B20,'2018 DEC'!B20)</f>
+        <v>14463.900000000003</v>
+      </c>
+      <c r="C20" s="53">
+        <f>SUM('2018 JAN'!C20,'2018 FEB'!C20,'2018 MAR'!C20,'2018 APRIL'!C20,'2018 MAY'!C20,'2018 JUNE'!C20,'2018 JULY'!C20,'2018 AUG'!C20,'2018 SEPT'!C20,'2018 OCT'!C20,'2018 NOV'!C20,'2018 DEC'!C20)</f>
+        <v>22071.3</v>
+      </c>
+      <c r="D20" s="33">
         <f>B20+C20</f>
-        <v>#REF!</v>
+        <v>36535.200000000004</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="53" t="e">
-        <f>SUM('2018 JULY'!G20,'2018 AUG'!G20,'2018 SEPT'!G20,'2018 OCT'!G20,'2018 NOV'!G20,#REF!)</f>
-        <v>#REF!</v>
+      <c r="G20" s="53">
+        <f>SUM('2018 JAN'!G20,'2018 FEB'!G20,'2018 MAR'!G20,'2018 APRIL'!G20,'2018 MAY'!G20,'2018 JUNE'!G20,'2018 JULY'!G20,'2018 AUG'!G20,'2018 SEPT'!G20,'2018 OCT'!G20,'2018 NOV'!G20,'2018 DEC'!G20)</f>
+        <v>82.97</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
@@ -12978,31 +13862,31 @@
       <c r="K20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="95" t="e">
+      <c r="L20" s="95">
         <f>SUM(L18:L19)</f>
-        <v>#REF!</v>
+        <v>26880.39</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="53" t="e">
-        <f>SUM('2018 JULY'!B21,'2018 AUG'!B21,'2018 SEPT'!B21,'2018 OCT'!B21,'2018 NOV'!B21,#REF!)</f>
-        <v>#REF!</v>
+      <c r="B21" s="53">
+        <f>SUM('2018 JAN'!B21,'2018 FEB'!B21,'2018 MAR'!B21,'2018 APRIL'!B21,'2018 MAY'!B21,'2018 JUNE'!B21,'2018 JULY'!B21,'2018 AUG'!B21,'2018 SEPT'!B21,'2018 OCT'!B21,'2018 NOV'!B21,'2018 DEC'!B21)</f>
+        <v>42342.9</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="33" t="e">
+      <c r="D21" s="33">
         <f>B21</f>
-        <v>#REF!</v>
+        <v>42342.9</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="53" t="e">
-        <f>SUM('2018 JULY'!G21,'2018 AUG'!G21,'2018 SEPT'!G21,'2018 OCT'!G21,'2018 NOV'!G21,#REF!)</f>
-        <v>#REF!</v>
+      <c r="G21" s="53">
+        <f>SUM('2018 JAN'!G21,'2018 FEB'!G21,'2018 MAR'!G21,'2018 APRIL'!G21,'2018 MAY'!G21,'2018 JUNE'!G21,'2018 JULY'!G21,'2018 AUG'!G21,'2018 SEPT'!G21,'2018 OCT'!G21,'2018 NOV'!G21,'2018 DEC'!G21)</f>
+        <v>51.2</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="42"/>
@@ -13013,22 +13897,22 @@
       <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="53" t="e">
-        <f>SUM('2018 JULY'!B22,'2018 AUG'!B22,'2018 SEPT'!B22,'2018 OCT'!B22,'2018 NOV'!B22,#REF!)</f>
-        <v>#REF!</v>
+      <c r="B22" s="53">
+        <f>SUM('2018 JAN'!B22,'2018 FEB'!B22,'2018 MAR'!B22,'2018 APRIL'!B22,'2018 MAY'!B22,'2018 JUNE'!B22,'2018 JULY'!B22,'2018 AUG'!B22,'2018 SEPT'!B22,'2018 OCT'!B22,'2018 NOV'!B22,'2018 DEC'!B22)</f>
+        <v>24.740000000000002</v>
       </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="33" t="e">
+      <c r="D22" s="33">
         <f>B22</f>
-        <v>#REF!</v>
+        <v>24.740000000000002</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="53" t="e">
-        <f>SUM('2018 JULY'!G22,'2018 AUG'!G22,'2018 SEPT'!G22,'2018 OCT'!G22,'2018 NOV'!G22,#REF!)</f>
-        <v>#REF!</v>
+      <c r="G22" s="53">
+        <f>SUM('2018 JAN'!G22,'2018 FEB'!G22,'2018 MAR'!G22,'2018 APRIL'!G22,'2018 MAY'!G22,'2018 JUNE'!G22,'2018 JULY'!G22,'2018 AUG'!G22,'2018 SEPT'!G22,'2018 OCT'!G22,'2018 NOV'!G22,'2018 DEC'!G22)</f>
+        <v>9.14</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
@@ -13040,20 +13924,20 @@
         <v>9</v>
       </c>
       <c r="B23" s="35"/>
-      <c r="C23" s="53" t="e">
-        <f>SUM('2018 JULY'!C23,'2018 AUG'!C23,'2018 SEPT'!C23,'2018 OCT'!C23,'2018 NOV'!C23,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="32" t="e">
+      <c r="C23" s="53">
+        <f>SUM('2018 JAN'!C23,'2018 FEB'!C23,'2018 MAR'!C23,'2018 APRIL'!C23,'2018 MAY'!C23,'2018 JUNE'!C23,'2018 JULY'!C23,'2018 AUG'!C23,'2018 SEPT'!C23,'2018 OCT'!C23,'2018 NOV'!C23,'2018 DEC'!C23)</f>
+        <v>4959</v>
+      </c>
+      <c r="D23" s="32">
         <f>C23</f>
-        <v>#REF!</v>
+        <v>4959</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="53" t="e">
-        <f>SUM('2018 JULY'!G23,'2018 AUG'!G23,'2018 SEPT'!G23,'2018 OCT'!G23,'2018 NOV'!G23,#REF!)</f>
-        <v>#REF!</v>
+      <c r="G23" s="53">
+        <f>SUM('2018 JAN'!G23,'2018 FEB'!G23,'2018 MAR'!G23,'2018 APRIL'!G23,'2018 MAY'!G23,'2018 JUNE'!G23,'2018 JULY'!G23,'2018 AUG'!G23,'2018 SEPT'!G23,'2018 OCT'!G23,'2018 NOV'!G23,'2018 DEC'!G23)</f>
+        <v>62.150000000000006</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
@@ -13065,57 +13949,57 @@
         <v>10</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="50" t="e">
-        <f>SUM('2018 JULY'!C24,'2018 AUG'!C24,'2018 SEPT'!C24,'2018 OCT'!C24,'2018 NOV'!C24,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="38" t="e">
+      <c r="C24" s="50">
+        <f>SUM('2018 JAN'!C24,'2018 FEB'!C24,'2018 MAR'!C24,'2018 APRIL'!C24,'2018 MAY'!C24,'2018 JUNE'!C24,'2018 JULY'!C24,'2018 AUG'!C24,'2018 SEPT'!C24,'2018 OCT'!C24,'2018 NOV'!C24,'2018 DEC'!C24)</f>
+        <v>4514</v>
+      </c>
+      <c r="D24" s="38">
         <f>C24</f>
-        <v>#REF!</v>
+        <v>4514</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="24" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="81"/>
-      <c r="H24" s="50" t="e">
-        <f>SUM('2018 JULY'!H24,'2018 AUG'!H24,'2018 SEPT'!H24,'2018 OCT'!H24,'2018 NOV'!H24,#REF!)</f>
-        <v>#REF!</v>
+      <c r="H24" s="50">
+        <f>SUM('2018 JAN'!H24,'2018 FEB'!H24,'2018 MAR'!H24,'2018 APRIL'!H24,'2018 MAY'!H24,'2018 JUNE'!H24,'2018 JULY'!H24,'2018 AUG'!H24,'2018 SEPT'!H24,'2018 OCT'!H24,'2018 NOV'!H24,'2018 DEC'!H24)</f>
+        <v>8.384999999999998</v>
       </c>
       <c r="I24" s="43"/>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="39" t="e">
+      <c r="B25" s="39">
         <f>SUM(B20:B22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C25" s="40" t="e">
+        <v>56831.54</v>
+      </c>
+      <c r="C25" s="40">
         <f>SUM(C20:C24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="41" t="e">
+        <v>31544.3</v>
+      </c>
+      <c r="D25" s="41">
         <f>B25+C25</f>
-        <v>#REF!</v>
+        <v>88375.84</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="84" t="e">
+      <c r="G25" s="84">
         <f>SUM(G19:G23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="76" t="e">
+        <v>777.66000000000008</v>
+      </c>
+      <c r="H25" s="76">
         <f>SUM(H24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="77" t="e">
+        <v>8.384999999999998</v>
+      </c>
+      <c r="I25" s="77">
         <f>G25+H25</f>
-        <v>#REF!</v>
+        <v>786.04500000000007</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="5"/>
@@ -13136,7 +14020,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -13144,7 +14028,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -13174,13 +14058,13 @@
       <c r="A31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="96" t="e">
+      <c r="B31" s="96">
         <f>L15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="46" t="e">
+        <v>7263.0215000000007</v>
+      </c>
+      <c r="C31" s="46">
         <f>B31/B36</f>
-        <v>#REF!</v>
+        <v>5.8902753621779748E-2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -13190,15 +14074,15 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="69" t="e">
+        <v>80</v>
+      </c>
+      <c r="B32" s="69">
         <f>G25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C32" s="47" t="e">
+        <v>777.66000000000008</v>
+      </c>
+      <c r="C32" s="47">
         <f>B32/B36</f>
-        <v>#REF!</v>
+        <v>6.3067850455231673E-3</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -13212,13 +14096,13 @@
       <c r="A33" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="96" t="e">
+      <c r="B33" s="96">
         <f>L20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C33" s="46" t="e">
+        <v>26880.39</v>
+      </c>
+      <c r="C33" s="46">
         <f>B33/B36</f>
-        <v>#REF!</v>
+        <v>0.2179986648018806</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -13233,13 +14117,13 @@
       <c r="A34" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="96" t="e">
+      <c r="B34" s="96">
         <f>C25+H25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C34" s="46" t="e">
+        <v>31552.684999999998</v>
+      </c>
+      <c r="C34" s="46">
         <f>B34/B36</f>
-        <v>#REF!</v>
+        <v>0.25589075161909203</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -13254,13 +14138,13 @@
       <c r="A35" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="97" t="e">
+      <c r="B35" s="97">
         <f>B25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C35" s="48" t="e">
+        <v>56831.54</v>
+      </c>
+      <c r="C35" s="48">
         <f>B35/B36</f>
-        <v>#REF!</v>
+        <v>0.46090104491172446</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -13271,7 +14155,2671 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
+      <c r="A36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="98">
+        <f>SUM(B31:B35)</f>
+        <v>123305.2965</v>
+      </c>
+      <c r="C36" s="44">
+        <f>SUM(C31:C35)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="7"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="7"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="7"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="7"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="7"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="7"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="7"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="7"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="7"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="7"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="7"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="7"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="7"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:L17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A1" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
+      <c r="A3" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="120"/>
+      <c r="J4" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="119"/>
+      <c r="L4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.200000000000003">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53">
+        <f>SUM('2018 JAN'!B6,'2018 FEB'!B6,'2018 MAR'!B6,'2018 APRIL'!B6,'2018 MAY'!B6,'2018 JUNE'!B6)</f>
+        <v>3980</v>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM('2018 JAN'!C6,'2018 FEB'!C6,'2018 MAR'!C6,'2018 APRIL'!C6,'2018 MAY'!C6,'2018 JUNE'!C6)</f>
+        <v>3140</v>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM('2018 JAN'!D6,'2018 FEB'!D6,'2018 MAR'!D6,'2018 APRIL'!D6,'2018 MAY'!D6,'2018 JUNE'!D6)</f>
+        <v>1780</v>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM('2018 JAN'!E6,'2018 FEB'!E6,'2018 MAR'!E6,'2018 APRIL'!E6,'2018 MAY'!E6,'2018 JUNE'!E6)</f>
+        <v>26100</v>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM('2018 JAN'!F6,'2018 FEB'!F6,'2018 MAR'!F6,'2018 APRIL'!F6,'2018 MAY'!F6,'2018 JUNE'!F6)</f>
+        <v>1846</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" ref="G6:G10" si="0">SUM(B6:F6)</f>
+        <v>36846</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="53">
+        <f>SUM('2018 JAN'!K6,'2018 FEB'!K6,'2018 MAR'!K6,'2018 APRIL'!K6,'2018 MAY'!K6,'2018 JUNE'!K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="65">
+        <f>SUM(G6:K6)/2000</f>
+        <v>18.422999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="53">
+        <f>SUM('2018 JAN'!B7,'2018 FEB'!B7,'2018 MAR'!B7,'2018 APRIL'!B7,'2018 MAY'!B7,'2018 JUNE'!B7)</f>
+        <v>37200</v>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM('2018 JAN'!C7,'2018 FEB'!C7,'2018 MAR'!C7,'2018 APRIL'!C7,'2018 MAY'!C7,'2018 JUNE'!C7)</f>
+        <v>42037</v>
+      </c>
+      <c r="D7" s="53">
+        <f>SUM('2018 JAN'!D7,'2018 FEB'!D7,'2018 MAR'!D7,'2018 APRIL'!D7,'2018 MAY'!D7,'2018 JUNE'!D7)</f>
+        <v>34940</v>
+      </c>
+      <c r="E7" s="53">
+        <f>SUM('2018 JAN'!E7,'2018 FEB'!E7,'2018 MAR'!E7,'2018 APRIL'!E7,'2018 MAY'!E7,'2018 JUNE'!E7)</f>
+        <v>154000</v>
+      </c>
+      <c r="F7" s="53">
+        <f>SUM('2018 JAN'!F7,'2018 FEB'!F7,'2018 MAR'!F7,'2018 APRIL'!F7,'2018 MAY'!F7,'2018 JUNE'!F7)</f>
+        <v>20520</v>
+      </c>
+      <c r="G7" s="51">
+        <f t="shared" si="0"/>
+        <v>288697</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53">
+        <f>SUM('2018 JAN'!K7,'2018 FEB'!K7,'2018 MAR'!K7,'2018 APRIL'!K7,'2018 MAY'!K7,'2018 JUNE'!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="65">
+        <f>SUM(G7:K7)/2000</f>
+        <v>144.3485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="53">
+        <f>SUM('2018 JAN'!B8,'2018 FEB'!B8,'2018 MAR'!B8,'2018 APRIL'!B8,'2018 MAY'!B8,'2018 JUNE'!B8)</f>
+        <v>65520</v>
+      </c>
+      <c r="C8" s="53">
+        <f>SUM('2018 JAN'!C8,'2018 FEB'!C8,'2018 MAR'!C8,'2018 APRIL'!C8,'2018 MAY'!C8,'2018 JUNE'!C8)</f>
+        <v>85450</v>
+      </c>
+      <c r="D8" s="53">
+        <f>SUM('2018 JAN'!D8,'2018 FEB'!D8,'2018 MAR'!D8,'2018 APRIL'!D8,'2018 MAY'!D8,'2018 JUNE'!D8)</f>
+        <v>72740</v>
+      </c>
+      <c r="E8" s="53">
+        <f>SUM('2018 JAN'!E8,'2018 FEB'!E8,'2018 MAR'!E8,'2018 APRIL'!E8,'2018 MAY'!E8,'2018 JUNE'!E8)</f>
+        <v>234820</v>
+      </c>
+      <c r="F8" s="53">
+        <f>SUM('2018 JAN'!F8,'2018 FEB'!F8,'2018 MAR'!F8,'2018 APRIL'!F8,'2018 MAY'!F8,'2018 JUNE'!F8)</f>
+        <v>101820</v>
+      </c>
+      <c r="G8" s="51">
+        <f t="shared" si="0"/>
+        <v>560350</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="53">
+        <f>SUM('2018 JAN'!K8,'2018 FEB'!K8,'2018 MAR'!K8,'2018 APRIL'!K8,'2018 MAY'!K8,'2018 JUNE'!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="65">
+        <f>SUM(G8:K8)/2000</f>
+        <v>280.17500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="53">
+        <f>SUM('2018 JAN'!B9,'2018 FEB'!B9,'2018 MAR'!B9,'2018 APRIL'!B9,'2018 MAY'!B9,'2018 JUNE'!B9)</f>
+        <v>81940</v>
+      </c>
+      <c r="C9" s="53">
+        <f>SUM('2018 JAN'!C9,'2018 FEB'!C9,'2018 MAR'!C9,'2018 APRIL'!C9,'2018 MAY'!C9,'2018 JUNE'!C9)</f>
+        <v>87180</v>
+      </c>
+      <c r="D9" s="53">
+        <f>SUM('2018 JAN'!D9,'2018 FEB'!D9,'2018 MAR'!D9,'2018 APRIL'!D9,'2018 MAY'!D9,'2018 JUNE'!D9)</f>
+        <v>64200</v>
+      </c>
+      <c r="E9" s="53">
+        <f>SUM('2018 JAN'!E9,'2018 FEB'!E9,'2018 MAR'!E9,'2018 APRIL'!E9,'2018 MAY'!E9,'2018 JUNE'!E9)</f>
+        <v>295480</v>
+      </c>
+      <c r="F9" s="53">
+        <f>SUM('2018 JAN'!F9,'2018 FEB'!F9,'2018 MAR'!F9,'2018 APRIL'!F9,'2018 MAY'!F9,'2018 JUNE'!F9)</f>
+        <v>49140</v>
+      </c>
+      <c r="G9" s="51">
+        <f t="shared" si="0"/>
+        <v>577940</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="53">
+        <f>SUM('2018 JAN'!J9,'2018 FEB'!J9,'2018 MAR'!J9,'2018 APRIL'!J9,'2018 MAY'!J9,'2018 JUNE'!J9)</f>
+        <v>39809</v>
+      </c>
+      <c r="K9" s="53">
+        <f>SUM('2018 JAN'!K9,'2018 FEB'!K9,'2018 MAR'!K9,'2018 APRIL'!K9,'2018 MAY'!K9,'2018 JUNE'!K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="65">
+        <f t="shared" ref="L9:L13" si="1">SUM(G9:K9)/2000</f>
+        <v>308.87450000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="53">
+        <f>SUM('2018 JAN'!B10,'2018 FEB'!B10,'2018 MAR'!B10,'2018 APRIL'!B10,'2018 MAY'!B10,'2018 JUNE'!B10)</f>
+        <v>64780</v>
+      </c>
+      <c r="C10" s="53">
+        <f>SUM('2018 JAN'!C10,'2018 FEB'!C10,'2018 MAR'!C10,'2018 APRIL'!C10,'2018 MAY'!C10,'2018 JUNE'!C10)</f>
+        <v>50455</v>
+      </c>
+      <c r="D10" s="53">
+        <f>SUM('2018 JAN'!D10,'2018 FEB'!D10,'2018 MAR'!D10,'2018 APRIL'!D10,'2018 MAY'!D10,'2018 JUNE'!D10)</f>
+        <v>55320</v>
+      </c>
+      <c r="E10" s="53">
+        <f>SUM('2018 JAN'!E10,'2018 FEB'!E10,'2018 MAR'!E10,'2018 APRIL'!E10,'2018 MAY'!E10,'2018 JUNE'!E10)</f>
+        <v>198280</v>
+      </c>
+      <c r="F10" s="53">
+        <f>SUM('2018 JAN'!F10,'2018 FEB'!F10,'2018 MAR'!F10,'2018 APRIL'!F10,'2018 MAY'!F10,'2018 JUNE'!F10)</f>
+        <v>43660</v>
+      </c>
+      <c r="G10" s="51">
+        <f t="shared" si="0"/>
+        <v>412495</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="53">
+        <f>SUM('2018 JAN'!I10,'2018 FEB'!I10,'2018 MAR'!I10,'2018 APRIL'!I10,'2018 MAY'!I10,'2018 JUNE'!I10)</f>
+        <v>45520</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="53">
+        <f>SUM('2018 JAN'!K10,'2018 FEB'!K10,'2018 MAR'!K10,'2018 APRIL'!K10,'2018 MAY'!K10,'2018 JUNE'!K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="65">
+        <f t="shared" si="1"/>
+        <v>229.00749999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="53">
+        <f>SUM('2018 JAN'!B11,'2018 FEB'!B11,'2018 MAR'!B11,'2018 APRIL'!B11,'2018 MAY'!B11,'2018 JUNE'!B11)</f>
+        <v>3080</v>
+      </c>
+      <c r="C11" s="53">
+        <f>SUM('2018 JAN'!C11,'2018 FEB'!C11,'2018 MAR'!C11,'2018 APRIL'!C11,'2018 MAY'!C11,'2018 JUNE'!C11)</f>
+        <v>4700</v>
+      </c>
+      <c r="D11" s="53">
+        <f>SUM('2018 JAN'!D11,'2018 FEB'!D11,'2018 MAR'!D11,'2018 APRIL'!D11,'2018 MAY'!D11,'2018 JUNE'!D11)</f>
+        <v>3620</v>
+      </c>
+      <c r="E11" s="53">
+        <f>SUM('2018 JAN'!E11,'2018 FEB'!E11,'2018 MAR'!E11,'2018 APRIL'!E11,'2018 MAY'!E11,'2018 JUNE'!E11)</f>
+        <v>12780</v>
+      </c>
+      <c r="F11" s="53">
+        <f>SUM('2018 JAN'!F11,'2018 FEB'!F11,'2018 MAR'!F11,'2018 APRIL'!F11,'2018 MAY'!F11,'2018 JUNE'!F11)</f>
+        <v>4260</v>
+      </c>
+      <c r="G11" s="51">
+        <f>SUM(B11:F11)</f>
+        <v>28440</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="53">
+        <f>SUM('2018 JAN'!K11,'2018 FEB'!K11,'2018 MAR'!K11,'2018 APRIL'!K11,'2018 MAY'!K11,'2018 JUNE'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="65">
+        <f t="shared" si="1"/>
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="53">
+        <f>SUM('2018 JAN'!B12,'2018 FEB'!B12,'2018 MAR'!B12,'2018 APRIL'!B12,'2018 MAY'!B12,'2018 JUNE'!B12)</f>
+        <v>11840</v>
+      </c>
+      <c r="C12" s="53">
+        <f>SUM('2018 JAN'!C12,'2018 FEB'!C12,'2018 MAR'!C12,'2018 APRIL'!C12,'2018 MAY'!C12,'2018 JUNE'!C12)</f>
+        <v>106380</v>
+      </c>
+      <c r="D12" s="53">
+        <f>SUM('2018 JAN'!D12,'2018 FEB'!D12,'2018 MAR'!D12,'2018 APRIL'!D12,'2018 MAY'!D12,'2018 JUNE'!D12)</f>
+        <v>15240</v>
+      </c>
+      <c r="E12" s="53">
+        <f>SUM('2018 JAN'!E12,'2018 FEB'!E12,'2018 MAR'!E12,'2018 APRIL'!E12,'2018 MAY'!E12,'2018 JUNE'!E12)</f>
+        <v>103480</v>
+      </c>
+      <c r="F12" s="53">
+        <f>SUM('2018 JAN'!F12,'2018 FEB'!F12,'2018 MAR'!F12,'2018 APRIL'!F12,'2018 MAY'!F12,'2018 JUNE'!F12)</f>
+        <v>12540</v>
+      </c>
+      <c r="G12" s="51">
+        <f>SUM(B12:F12)</f>
+        <v>249480</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="53">
+        <f>SUM('2018 JAN'!K12,'2018 FEB'!K12,'2018 MAR'!K12,'2018 APRIL'!K12,'2018 MAY'!K12,'2018 JUNE'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="65">
+        <f t="shared" si="1"/>
+        <v>124.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="50">
+        <f>SUM('2018 JAN'!H13,'2018 FEB'!H13,'2018 MAR'!H13,'2018 APRIL'!H13,'2018 MAY'!H13,'2018 JUNE'!H13)</f>
+        <v>4075437</v>
+      </c>
+      <c r="I13" s="50">
+        <f>SUM('2018 JAN'!I13,'2018 FEB'!I13,'2018 MAR'!I13,'2018 APRIL'!I13,'2018 MAY'!I13,'2018 JUNE'!I13)</f>
+        <v>421800</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="50">
+        <f>SUM('2018 JAN'!K13,'2018 FEB'!K13,'2018 MAR'!K13,'2018 APRIL'!K13,'2018 MAY'!K13,'2018 JUNE'!K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="66">
+        <f t="shared" si="1"/>
+        <v>2248.6185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="61" customFormat="1">
+      <c r="A14" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="51">
+        <f>SUM(B6:B13)</f>
+        <v>268340</v>
+      </c>
+      <c r="C14" s="51">
+        <f>SUM(C6:C13)</f>
+        <v>379342</v>
+      </c>
+      <c r="D14" s="51">
+        <f>SUM(D6:D13)</f>
+        <v>247840</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" ref="E14:F14" si="2">SUM(E6:E13)</f>
+        <v>1024940</v>
+      </c>
+      <c r="F14" s="51">
+        <f t="shared" si="2"/>
+        <v>233786</v>
+      </c>
+      <c r="G14" s="51">
+        <f>SUM(G6:G13)</f>
+        <v>2154248</v>
+      </c>
+      <c r="H14" s="51">
+        <f t="shared" ref="H14:I14" si="3">SUM(H6:H13)</f>
+        <v>4075437</v>
+      </c>
+      <c r="I14" s="51">
+        <f t="shared" si="3"/>
+        <v>467320</v>
+      </c>
+      <c r="J14" s="51">
+        <f>SUM(J6:J13)</f>
+        <v>39809</v>
+      </c>
+      <c r="K14" s="51">
+        <f t="shared" ref="K14" si="4">SUM(K6:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="67"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="A15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="91">
+        <f>SUM(B14)/2000</f>
+        <v>134.16999999999999</v>
+      </c>
+      <c r="C15" s="91">
+        <f>SUM(C14)/2000</f>
+        <v>189.67099999999999</v>
+      </c>
+      <c r="D15" s="91">
+        <f>SUM(D14)/2000</f>
+        <v>123.92</v>
+      </c>
+      <c r="E15" s="91">
+        <f t="shared" ref="E15:K15" si="5">SUM(E14)/2000</f>
+        <v>512.47</v>
+      </c>
+      <c r="F15" s="91">
+        <f t="shared" si="5"/>
+        <v>116.893</v>
+      </c>
+      <c r="G15" s="91">
+        <f t="shared" si="5"/>
+        <v>1077.124</v>
+      </c>
+      <c r="H15" s="91">
+        <f t="shared" si="5"/>
+        <v>2037.7184999999999</v>
+      </c>
+      <c r="I15" s="91">
+        <f t="shared" si="5"/>
+        <v>233.66</v>
+      </c>
+      <c r="J15" s="91">
+        <f t="shared" si="5"/>
+        <v>19.904499999999999</v>
+      </c>
+      <c r="K15" s="91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="68">
+        <f>SUM(L6:L13)</f>
+        <v>3368.4070000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="21">
+      <c r="A17" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="130"/>
+    </row>
+    <row r="18" spans="1:12" ht="48" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="104">
+        <f>SUM('2018 JAN'!L18,'2018 FEB'!L18,'2018 MAR'!L18,'2018 APRIL'!L18,'2018 MAY'!L18,'2018 JUNE'!L18)</f>
+        <v>695.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="53">
+        <f>SUM('2018 JAN'!G19,'2018 FEB'!G19,'2018 MAR'!G19,'2018 APRIL'!G19,'2018 MAY'!G19,'2018 JUNE'!G19)</f>
+        <v>285.83999999999997</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="105">
+        <f>SUM('2018 JAN'!L19,'2018 FEB'!L19,'2018 MAR'!L19,'2018 APRIL'!L19,'2018 MAY'!L19,'2018 JUNE'!L19)</f>
+        <v>10900.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="53">
+        <f>SUM('2018 JAN'!B20,'2018 FEB'!B20,'2018 MAR'!B20,'2018 APRIL'!B20,'2018 MAY'!B20,'2018 JUNE'!B20)</f>
+        <v>7765.2300000000005</v>
+      </c>
+      <c r="C20" s="53">
+        <f>SUM('2018 JAN'!C20,'2018 FEB'!C20,'2018 MAR'!C20,'2018 APRIL'!C20,'2018 MAY'!C20,'2018 JUNE'!C20)</f>
+        <v>10042</v>
+      </c>
+      <c r="D20" s="108">
+        <f>B20+C20</f>
+        <v>17807.23</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="53">
+        <f>SUM('2018 JAN'!G20,'2018 FEB'!G20,'2018 MAR'!G20,'2018 APRIL'!G20,'2018 MAY'!G20,'2018 JUNE'!G20)</f>
+        <v>36.22</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="95">
+        <f>SUM(L18:L19)</f>
+        <v>11595.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="53">
+        <f>SUM('2018 JAN'!B21,'2018 FEB'!B21,'2018 MAR'!B21,'2018 APRIL'!B21,'2018 MAY'!B21,'2018 JUNE'!B21)</f>
+        <v>20773.16</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="108">
+        <f>B21</f>
+        <v>20773.16</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="53">
+        <f>SUM('2018 JAN'!G21,'2018 FEB'!G21,'2018 MAR'!G21,'2018 APRIL'!G21,'2018 MAY'!G21,'2018 JUNE'!G21)</f>
+        <v>37.630000000000003</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="53">
+        <f>SUM('2018 JAN'!B22,'2018 FEB'!B22,'2018 MAR'!B22,'2018 APRIL'!B22,'2018 MAY'!B22,'2018 JUNE'!B22)</f>
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="108">
+        <f>B22</f>
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="53">
+        <f>SUM('2018 JAN'!G22,'2018 FEB'!G22,'2018 MAR'!G22,'2018 APRIL'!G22,'2018 MAY'!G22,'2018 JUNE'!G22)</f>
+        <v>5.51</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="53">
+        <f>SUM('2018 JAN'!C23,'2018 FEB'!C23,'2018 MAR'!C23,'2018 APRIL'!C23,'2018 MAY'!C23,'2018 JUNE'!C23)</f>
+        <v>2723</v>
+      </c>
+      <c r="D23" s="109">
+        <f>C23</f>
+        <v>2723</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="53">
+        <f>SUM('2018 JAN'!G23,'2018 FEB'!G23,'2018 MAR'!G23,'2018 APRIL'!G23,'2018 MAY'!G23,'2018 JUNE'!G23)</f>
+        <v>32.21</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="24" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="50">
+        <f>SUM('2018 JAN'!C24,'2018 FEB'!C24,'2018 MAR'!C24,'2018 APRIL'!C24,'2018 MAY'!C24,'2018 JUNE'!C24)</f>
+        <v>2348</v>
+      </c>
+      <c r="D24" s="110">
+        <f>C24</f>
+        <v>2348</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="50">
+        <f>SUM('2018 JAN'!H24,'2018 FEB'!H24,'2018 MAR'!H24,'2018 APRIL'!H24,'2018 MAY'!H24,'2018 JUNE'!H24)</f>
+        <v>3.01</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1">
+      <c r="A25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="111">
+        <f>SUM(B20:B22)</f>
+        <v>28547.35</v>
+      </c>
+      <c r="C25" s="106">
+        <f>SUM(C20:C24)</f>
+        <v>15113</v>
+      </c>
+      <c r="D25" s="107">
+        <f>B25+C25</f>
+        <v>43660.35</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="84">
+        <f>SUM(G19:G23)</f>
+        <v>397.40999999999991</v>
+      </c>
+      <c r="H25" s="76">
+        <f>SUM(H24)</f>
+        <v>3.01</v>
+      </c>
+      <c r="I25" s="77">
+        <f>G25+H25</f>
+        <v>400.4199999999999</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="21">
+      <c r="A29" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="96">
+        <f>L15</f>
+        <v>3368.4070000000002</v>
+      </c>
+      <c r="C31" s="46">
+        <f>B31/B36</f>
+        <v>5.7067436834887006E-2</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="69">
+        <f>G25</f>
+        <v>397.40999999999991</v>
+      </c>
+      <c r="C32" s="47">
+        <f>B32/B36</f>
+        <v>6.7329067041341619E-3</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="96">
+        <f>L20</f>
+        <v>11595.85</v>
+      </c>
+      <c r="C33" s="46">
+        <f>B33/B36</f>
+        <v>0.19645649632654974</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="96">
+        <f>C25+H25</f>
+        <v>15116.01</v>
+      </c>
+      <c r="C34" s="46">
+        <f>B34/B36</f>
+        <v>0.25609492732633565</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="97">
+        <f>B25</f>
+        <v>28547.35</v>
+      </c>
+      <c r="C35" s="48">
+        <f>B35/B36</f>
+        <v>0.48364823280809338</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1">
+      <c r="A36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="98">
+        <f>SUM(B31:B35)</f>
+        <v>59025.027000000002</v>
+      </c>
+      <c r="C36" s="44">
+        <f>SUM(C31:C35)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1"/>
+      <c r="B39" s="113">
+        <f>SUM(B31:B34)</f>
+        <v>30477.677000000003</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1"/>
+      <c r="B40" s="113"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="112"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="7"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="7"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="7"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="7"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="7"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="7"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="7"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="7"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="7"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="7"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="7"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="7"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="7"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:L17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A1" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
+      <c r="A3" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="120"/>
+      <c r="J4" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="119"/>
+      <c r="L4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.200000000000003">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53">
+        <f>SUM('2018 JULY'!B6,'2018 AUG'!B6,'2018 SEPT'!B6,'2018 OCT'!B6,'2018 NOV'!B6,'2018 DEC'!B6)</f>
+        <v>3698</v>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM('2018 JULY'!C6,'2018 AUG'!C6,'2018 SEPT'!C6,'2018 OCT'!C6,'2018 NOV'!C6,'2018 DEC'!C6)</f>
+        <v>5860</v>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM('2018 JULY'!D6,'2018 AUG'!D6,'2018 SEPT'!D6,'2018 OCT'!D6,'2018 NOV'!D6,'2018 DEC'!D6)</f>
+        <v>3010</v>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM('2018 JULY'!E6,'2018 AUG'!E6,'2018 SEPT'!E6,'2018 OCT'!E6,'2018 NOV'!E6,'2018 DEC'!E6)</f>
+        <v>17840</v>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM('2018 JULY'!F6,'2018 AUG'!F6,'2018 SEPT'!F6,'2018 OCT'!F6,'2018 NOV'!F6,'2018 DEC'!F6)</f>
+        <v>2760</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" ref="G6:G10" si="0">SUM(B6:F6)</f>
+        <v>33168</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="53">
+        <f>SUM('2018 JULY'!K6,'2018 AUG'!K6,'2018 SEPT'!K6,'2018 OCT'!K6,'2018 NOV'!K6,'2018 DEC'!K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="65">
+        <f>SUM(G6:K6)/2000</f>
+        <v>16.584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="53">
+        <f>SUM('2018 JULY'!B7,'2018 AUG'!B7,'2018 SEPT'!B7,'2018 OCT'!B7,'2018 NOV'!B7,'2018 DEC'!B7)</f>
+        <v>29080</v>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM('2018 JULY'!C7,'2018 AUG'!C7,'2018 SEPT'!C7,'2018 OCT'!C7,'2018 NOV'!C7,'2018 DEC'!C7)</f>
+        <v>44936</v>
+      </c>
+      <c r="D7" s="53">
+        <f>SUM('2018 JULY'!D7,'2018 AUG'!D7,'2018 SEPT'!D7,'2018 OCT'!D7,'2018 NOV'!D7,'2018 DEC'!D7)</f>
+        <v>31600</v>
+      </c>
+      <c r="E7" s="53">
+        <f>SUM('2018 JULY'!E7,'2018 AUG'!E7,'2018 SEPT'!E7,'2018 OCT'!E7,'2018 NOV'!E7,'2018 DEC'!E7)</f>
+        <v>173730</v>
+      </c>
+      <c r="F7" s="53">
+        <f>SUM('2018 JULY'!F7,'2018 AUG'!F7,'2018 SEPT'!F7,'2018 OCT'!F7,'2018 NOV'!F7,'2018 DEC'!F7)</f>
+        <v>19195</v>
+      </c>
+      <c r="G7" s="51">
+        <f t="shared" si="0"/>
+        <v>298541</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53">
+        <f>SUM('2018 JULY'!K7,'2018 AUG'!K7,'2018 SEPT'!K7,'2018 OCT'!K7,'2018 NOV'!K7,'2018 DEC'!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="65">
+        <f>SUM(G7:K7)/2000</f>
+        <v>149.2705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="53">
+        <f>SUM('2018 JULY'!B8,'2018 AUG'!B8,'2018 SEPT'!B8,'2018 OCT'!B8,'2018 NOV'!B8,'2018 DEC'!B8)</f>
+        <v>43840</v>
+      </c>
+      <c r="C8" s="53">
+        <f>SUM('2018 JULY'!C8,'2018 AUG'!C8,'2018 SEPT'!C8,'2018 OCT'!C8,'2018 NOV'!C8,'2018 DEC'!C8)</f>
+        <v>105940</v>
+      </c>
+      <c r="D8" s="53">
+        <f>SUM('2018 JULY'!D8,'2018 AUG'!D8,'2018 SEPT'!D8,'2018 OCT'!D8,'2018 NOV'!D8,'2018 DEC'!D8)</f>
+        <v>70200</v>
+      </c>
+      <c r="E8" s="53">
+        <f>SUM('2018 JULY'!E8,'2018 AUG'!E8,'2018 SEPT'!E8,'2018 OCT'!E8,'2018 NOV'!E8,'2018 DEC'!E8)</f>
+        <v>253788</v>
+      </c>
+      <c r="F8" s="53">
+        <f>SUM('2018 JULY'!F8,'2018 AUG'!F8,'2018 SEPT'!F8,'2018 OCT'!F8,'2018 NOV'!F8,'2018 DEC'!F8)</f>
+        <v>94240</v>
+      </c>
+      <c r="G8" s="51">
+        <f t="shared" si="0"/>
+        <v>568008</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="53">
+        <f>SUM('2018 JULY'!K8,'2018 AUG'!K8,'2018 SEPT'!K8,'2018 OCT'!K8,'2018 NOV'!K8,'2018 DEC'!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="65">
+        <f>SUM(G8:K8)/2000</f>
+        <v>284.00400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="53">
+        <f>SUM('2018 JULY'!B9,'2018 AUG'!B9,'2018 SEPT'!B9,'2018 OCT'!B9,'2018 NOV'!C9,'2018 DEC'!B9)</f>
+        <v>104780</v>
+      </c>
+      <c r="C9" s="53" t="e">
+        <f>SUM('2018 JULY'!C9,'2018 AUG'!C9,'2018 SEPT'!C9,'2018 OCT'!C9,'2018 NOV'!#REF!,'2018 DEC'!C9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="53">
+        <f>SUM('2018 JULY'!D9,'2018 AUG'!D9,'2018 SEPT'!D9,'2018 OCT'!D9,'2018 NOV'!D9,'2018 DEC'!D9)</f>
+        <v>112640</v>
+      </c>
+      <c r="E9" s="53">
+        <f>SUM('2018 JULY'!E9,'2018 AUG'!E9,'2018 SEPT'!E9,'2018 OCT'!E9,'2018 NOV'!E9,'2018 DEC'!E9)</f>
+        <v>452363</v>
+      </c>
+      <c r="F9" s="53">
+        <f>SUM('2018 JULY'!F9,'2018 AUG'!F9,'2018 SEPT'!F9,'2018 OCT'!F9,'2018 NOV'!F9,'2018 DEC'!F9)</f>
+        <v>44230</v>
+      </c>
+      <c r="G9" s="51" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="53">
+        <f>SUM('2018 JULY'!J9,'2018 AUG'!J9,'2018 SEPT'!J9,'2018 OCT'!J9,'2018 NOV'!J9,'2018 DEC'!J9)</f>
+        <v>26706</v>
+      </c>
+      <c r="K9" s="53">
+        <f>SUM('2018 JULY'!K9,'2018 AUG'!K9,'2018 SEPT'!K9,'2018 OCT'!K9,'2018 NOV'!K9,'2018 DEC'!K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="65" t="e">
+        <f t="shared" ref="L9:L13" si="1">SUM(G9:K9)/2000</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="53">
+        <f>SUM('2018 JULY'!B10,'2018 AUG'!B10,'2018 SEPT'!B10,'2018 OCT'!B10,'2018 NOV'!B10,'2018 DEC'!B10)</f>
+        <v>82760</v>
+      </c>
+      <c r="C10" s="53">
+        <f>SUM('2018 JULY'!C10,'2018 AUG'!C10,'2018 SEPT'!C10,'2018 OCT'!C10,'2018 NOV'!C10,'2018 DEC'!C10)</f>
+        <v>87976</v>
+      </c>
+      <c r="D10" s="53">
+        <f>SUM('2018 JULY'!D10,'2018 AUG'!D10,'2018 SEPT'!D10,'2018 OCT'!D10,'2018 NOV'!D10,'2018 DEC'!D10)</f>
+        <v>57860</v>
+      </c>
+      <c r="E10" s="53">
+        <f>SUM('2018 JULY'!E10,'2018 AUG'!E10,'2018 SEPT'!E10,'2018 OCT'!E10,'2018 NOV'!E10,'2018 DEC'!E10)</f>
+        <v>271253</v>
+      </c>
+      <c r="F10" s="53">
+        <f>SUM('2018 JULY'!F10,'2018 AUG'!F10,'2018 SEPT'!F10,'2018 OCT'!F10,'2018 NOV'!F10,'2018 DEC'!F10)</f>
+        <v>62186</v>
+      </c>
+      <c r="G10" s="51">
+        <f t="shared" si="0"/>
+        <v>562035</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="53">
+        <f>SUM('2018 JULY'!I10,'2018 AUG'!I10,'2018 SEPT'!I10,'2018 OCT'!I13,'2018 NOV'!I13,'2018 DEC'!I13)</f>
+        <v>325010</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="53">
+        <f>SUM('2018 JULY'!K10,'2018 AUG'!K10,'2018 SEPT'!K10,'2018 OCT'!K10,'2018 NOV'!K10,'2018 DEC'!K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="65">
+        <f t="shared" si="1"/>
+        <v>443.52249999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="53">
+        <f>SUM('2018 JULY'!B11,'2018 AUG'!B11,'2018 SEPT'!B11,'2018 OCT'!B11,'2018 NOV'!B11,'2018 DEC'!B11)</f>
+        <v>5780</v>
+      </c>
+      <c r="C11" s="53">
+        <f>SUM('2018 JULY'!C11,'2018 AUG'!C11,'2018 SEPT'!C11,'2018 OCT'!C11,'2018 NOV'!C11,'2018 DEC'!C11)</f>
+        <v>5180</v>
+      </c>
+      <c r="D11" s="53">
+        <f>SUM('2018 JULY'!D11,'2018 AUG'!D11,'2018 SEPT'!D11,'2018 OCT'!D11,'2018 NOV'!D11,'2018 DEC'!D11)</f>
+        <v>2440</v>
+      </c>
+      <c r="E11" s="53">
+        <f>SUM('2018 JULY'!E11,'2018 AUG'!E11,'2018 SEPT'!E11,'2018 OCT'!E11,'2018 NOV'!E11,'2018 DEC'!E11)</f>
+        <v>15480</v>
+      </c>
+      <c r="F11" s="53">
+        <f>SUM('2018 JULY'!F11,'2018 AUG'!F11,'2018 SEPT'!F11,'2018 OCT'!F11,'2018 NOV'!F11,'2018 DEC'!F11)</f>
+        <v>1700</v>
+      </c>
+      <c r="G11" s="51">
+        <f>SUM(B11:F11)</f>
+        <v>30580</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="53">
+        <f>SUM('2018 JULY'!K11,'2018 AUG'!K11,'2018 SEPT'!K11,'2018 OCT'!K11,'2018 NOV'!K11,'2018 DEC'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="65">
+        <f t="shared" si="1"/>
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="53">
+        <f>SUM('2018 JULY'!B12,'2018 AUG'!B12,'2018 SEPT'!B12,'2018 OCT'!B12,'2018 NOV'!F12,'2018 DEC'!B12)</f>
+        <v>9860</v>
+      </c>
+      <c r="C12" s="53">
+        <f>SUM('2018 JULY'!C12,'2018 AUG'!C12,'2018 SEPT'!C12,'2018 OCT'!C12,'2018 NOV'!C12,'2018 DEC'!C12)</f>
+        <v>44540</v>
+      </c>
+      <c r="D12" s="53">
+        <f>SUM('2018 JULY'!D12,'2018 AUG'!D12,'2018 SEPT'!D12,'2018 OCT'!D12,'2018 NOV'!D12,'2018 DEC'!D12)</f>
+        <v>18300</v>
+      </c>
+      <c r="E12" s="53">
+        <f>SUM('2018 JULY'!E12,'2018 AUG'!E12,'2018 SEPT'!E12,'2018 OCT'!E12,'2018 NOV'!E12,'2018 DEC'!E12)</f>
+        <v>23130</v>
+      </c>
+      <c r="F12" s="53" t="e">
+        <f>SUM('2018 JULY'!F12,'2018 AUG'!F12,'2018 SEPT'!F12,'2018 OCT'!F12,'2018 NOV'!#REF!,'2018 DEC'!F12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="51" t="e">
+        <f>SUM(B12:F12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="53">
+        <f>SUM('2018 JULY'!K12,'2018 AUG'!K12,'2018 SEPT'!K12,'2018 OCT'!K12,'2018 NOV'!K12,'2018 DEC'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="65" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="50">
+        <f>SUM('2018 JULY'!H13,'2018 AUG'!H13,'2018 SEPT'!H13,'2018 OCT'!H13,'2018 NOV'!H13,'2018 DEC'!H13)</f>
+        <v>4462954</v>
+      </c>
+      <c r="I13" s="50" t="e">
+        <f>SUM('2018 JULY'!I13,'2018 AUG'!I13,'2018 SEPT'!I13,'2018 OCT'!#REF!,'2018 NOV'!#REF!,'2018 DEC'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="53">
+        <f>SUM('2018 JULY'!K13,'2018 AUG'!K13,'2018 SEPT'!K13,'2018 OCT'!K13,'2018 NOV'!K13,'2018 DEC'!K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="66" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="61" customFormat="1">
+      <c r="A14" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="51">
+        <f>SUM(B6:B13)</f>
+        <v>279798</v>
+      </c>
+      <c r="C14" s="51" t="e">
+        <f>SUM(C6:C13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="51">
+        <f>SUM(D6:D13)</f>
+        <v>296050</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" ref="E14:F14" si="2">SUM(E6:E13)</f>
+        <v>1207584</v>
+      </c>
+      <c r="F14" s="51" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="51" t="e">
+        <f>SUM(G6:G13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="51">
+        <f t="shared" ref="H14:I14" si="3">SUM(H6:H13)</f>
+        <v>4462954</v>
+      </c>
+      <c r="I14" s="51" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="51">
+        <f>SUM(J6:J13)</f>
+        <v>26706</v>
+      </c>
+      <c r="K14" s="51">
+        <f t="shared" ref="K14" si="4">SUM(K6:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="67"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="A15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="91">
+        <f>SUM(B14)/2000</f>
+        <v>139.899</v>
+      </c>
+      <c r="C15" s="91" t="e">
+        <f>SUM(C14)/2000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="91">
+        <f>SUM(D14)/2000</f>
+        <v>148.02500000000001</v>
+      </c>
+      <c r="E15" s="91">
+        <f t="shared" ref="E15:K15" si="5">SUM(E14)/2000</f>
+        <v>603.79200000000003</v>
+      </c>
+      <c r="F15" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="91">
+        <f t="shared" si="5"/>
+        <v>2231.4769999999999</v>
+      </c>
+      <c r="I15" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="91">
+        <f t="shared" si="5"/>
+        <v>13.353</v>
+      </c>
+      <c r="K15" s="91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="68" t="e">
+        <f>SUM(L6:L13)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="21">
+      <c r="A17" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="130"/>
+    </row>
+    <row r="18" spans="1:12" ht="48" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="104">
+        <f>SUM('2018 JULY'!L18,'2018 AUG'!L18,'2018 SEPT'!L18,'2018 OCT'!L18,'2018 NOV'!L18,'2018 DEC'!L18)</f>
+        <v>4532.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="53">
+        <f>SUM('2018 JULY'!G19,'2018 AUG'!G19,'2018 SEPT'!G19,'2018 OCT'!G19,'2018 NOV'!G19,'2018 DEC'!G19)</f>
+        <v>286.36</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="104">
+        <f>SUM('2018 JULY'!L19,'2018 AUG'!L19,'2018 SEPT'!L19,'2018 OCT'!L19,'2018 NOV'!L19,'2018 DEC'!L19)</f>
+        <v>10752.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="53">
+        <f>SUM('2018 JULY'!B20,'2018 AUG'!B20,'2018 SEPT'!B20,'2018 OCT'!B20,'2018 NOV'!B20,'2018 DEC'!B20)</f>
+        <v>6698.6699999999992</v>
+      </c>
+      <c r="C20" s="53">
+        <f>SUM('2018 JULY'!C20,'2018 AUG'!C20,'2018 SEPT'!C20,'2018 OCT'!C20,'2018 NOV'!C20,'2018 DEC'!C20)</f>
+        <v>12029.3</v>
+      </c>
+      <c r="D20" s="33">
+        <f>B20+C20</f>
+        <v>18727.969999999998</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="53">
+        <f>SUM('2018 JULY'!G20,'2018 AUG'!G20,'2018 SEPT'!G20,'2018 OCT'!G20,'2018 NOV'!G20,'2018 DEC'!G20)</f>
+        <v>46.75</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="95">
+        <f>SUM(L18:L19)</f>
+        <v>15284.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="53">
+        <f>SUM('2018 JULY'!B21,'2018 AUG'!B21,'2018 SEPT'!B21,'2018 OCT'!B21,'2018 NOV'!B21,'2018 DEC'!B21)</f>
+        <v>21569.739999999998</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="33">
+        <f>B21</f>
+        <v>21569.739999999998</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="53">
+        <f>SUM('2018 JULY'!G21,'2018 AUG'!G21,'2018 SEPT'!G21,'2018 OCT'!G21,'2018 NOV'!G21,'2018 DEC'!G21)</f>
+        <v>13.57</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="53">
+        <f>SUM('2018 JULY'!B22,'2018 AUG'!B22,'2018 SEPT'!B22,'2018 OCT'!B22,'2018 NOV'!B22,'2018 DEC'!B22)</f>
+        <v>15.779999999999998</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="33">
+        <f>B22</f>
+        <v>15.779999999999998</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="53">
+        <f>SUM('2018 JULY'!G22,'2018 AUG'!G22,'2018 SEPT'!G22,'2018 OCT'!G22,'2018 NOV'!G22,'2018 DEC'!G22)</f>
+        <v>3.63</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="53">
+        <f>SUM('2018 JULY'!C23,'2018 AUG'!C23,'2018 SEPT'!C23,'2018 OCT'!C23,'2018 NOV'!C23,'2018 DEC'!C23)</f>
+        <v>2236</v>
+      </c>
+      <c r="D23" s="32">
+        <f>C23</f>
+        <v>2236</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="53">
+        <f>SUM('2018 JULY'!G23,'2018 AUG'!G23,'2018 SEPT'!G23,'2018 OCT'!G23,'2018 NOV'!G23,'2018 DEC'!G23)</f>
+        <v>29.94</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="24" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="50">
+        <f>SUM('2018 JULY'!C24,'2018 AUG'!C24,'2018 SEPT'!C24,'2018 OCT'!C24,'2018 NOV'!C24,'2018 DEC'!C24)</f>
+        <v>2166</v>
+      </c>
+      <c r="D24" s="38">
+        <f>C24</f>
+        <v>2166</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="50">
+        <f>SUM('2018 JULY'!H24,'2018 AUG'!H24,'2018 SEPT'!H24,'2018 OCT'!H24,'2018 NOV'!H24,'2018 DEC'!H24)</f>
+        <v>5.375</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1">
+      <c r="A25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="39">
+        <f>SUM(B20:B22)</f>
+        <v>28284.189999999995</v>
+      </c>
+      <c r="C25" s="40">
+        <f>SUM(C20:C24)</f>
+        <v>16431.3</v>
+      </c>
+      <c r="D25" s="41">
+        <f>B25+C25</f>
+        <v>44715.489999999991</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="84">
+        <f>SUM(G19:G23)</f>
+        <v>380.25</v>
+      </c>
+      <c r="H25" s="76">
+        <f>SUM(H24)</f>
+        <v>5.375</v>
+      </c>
+      <c r="I25" s="77">
+        <f>G25+H25</f>
+        <v>385.625</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="21">
+      <c r="A29" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="96" t="e">
+        <f>L15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C31" s="46" t="e">
+        <f>B31/B36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="69">
+        <f>G25</f>
+        <v>380.25</v>
+      </c>
+      <c r="C32" s="47" t="e">
+        <f>B32/B36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="96">
+        <f>L20</f>
+        <v>15284.54</v>
+      </c>
+      <c r="C33" s="46" t="e">
+        <f>B33/B36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="96">
+        <f>C25+H25</f>
+        <v>16436.674999999999</v>
+      </c>
+      <c r="C34" s="46" t="e">
+        <f>B34/B36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="97">
+        <f>B25</f>
+        <v>28284.189999999995</v>
+      </c>
+      <c r="C35" s="48" t="e">
+        <f>B35/B36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -13672,20 +17220,20 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
@@ -13697,8 +17245,8 @@
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -13737,7 +17285,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -14086,7 +17634,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -14135,7 +17683,7 @@
         <v>538.74099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -14149,7 +17697,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -14354,7 +17902,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -14404,7 +17952,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -14412,7 +17960,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -14458,7 +18006,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -14539,7 +18087,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -14940,20 +18488,20 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
@@ -14965,8 +18513,8 @@
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -15005,7 +18553,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -15354,7 +18902,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -15403,7 +18951,7 @@
         <v>584.39699999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15417,7 +18965,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -15622,7 +19170,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -15672,7 +19220,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -15680,7 +19228,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -15726,7 +19274,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -15807,7 +19355,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -16208,20 +19756,20 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
@@ -16233,8 +19781,8 @@
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -16273,7 +19821,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -16622,7 +20170,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -16671,7 +20219,7 @@
         <v>571.04949999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -16685,7 +20233,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -16890,7 +20438,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -16940,7 +20488,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -16948,7 +20496,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -16994,7 +20542,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -17075,7 +20623,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -17478,20 +21026,20 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
@@ -17503,8 +21051,8 @@
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -17543,7 +21091,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -17892,7 +21440,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -17941,7 +21489,7 @@
         <v>629.68550000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -17955,7 +21503,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -18160,7 +21708,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -18210,7 +21758,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -18218,7 +21766,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -18264,7 +21812,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -18345,7 +21893,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -18746,20 +22294,20 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
@@ -18771,8 +22319,8 @@
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -18811,7 +22359,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -19158,7 +22706,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -19207,7 +22755,7 @@
         <v>523.1579999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -19221,7 +22769,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -19426,7 +22974,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -19476,7 +23024,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -19484,7 +23032,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -19530,7 +23078,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -19611,7 +23159,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -20009,24 +23557,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
@@ -20038,8 +23586,8 @@
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -20078,7 +23626,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -20427,7 +23975,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -20476,7 +24024,7 @@
         <v>742.11149999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -20490,7 +24038,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -20695,7 +24243,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -20745,7 +24293,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -20753,7 +24301,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -20799,7 +24347,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -20880,7 +24428,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -21277,37 +24825,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
       <c r="A1" s="121" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -21346,7 +24894,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -21695,7 +25243,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -21744,7 +25292,7 @@
         <v>612.10799999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -21758,7 +25306,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -21963,7 +25511,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -22013,7 +25561,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -22021,7 +25569,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -22067,7 +25615,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -22148,7 +25696,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
@@ -22549,37 +26097,37 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="13" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45.75" customHeight="1">
       <c r="A1" s="121" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1">
       <c r="A3" s="122" t="s">
         <v>24</v>
       </c>
@@ -22618,7 +26166,7 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="40.200000000000003">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -22967,7 +26515,7 @@
       </c>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -23016,7 +26564,7 @@
         <v>528.11850000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -23030,7 +26578,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17" s="115" t="s">
         <v>60</v>
       </c>
@@ -23235,7 +26783,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -23285,7 +26833,7 @@
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -23293,7 +26841,7 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="20.25">
+    <row r="29" spans="1:12" ht="21">
       <c r="A29" s="115" t="s">
         <v>59</v>
       </c>
@@ -23339,7 +26887,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="69">
         <f>G25</f>
@@ -23420,7 +26968,7 @@
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
